--- a/data/workspace.xlsx
+++ b/data/workspace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24360" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="workspace.csv" sheetId="1" r:id="rId1"/>
@@ -4357,11 +4357,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD570"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="D331" sqref="D331:D342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:56">
       <c r="A1" t="s">
@@ -34133,7 +34136,7 @@
         <v>48</v>
       </c>
       <c r="D338">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E338" t="s">
         <v>56</v>
@@ -34201,7 +34204,7 @@
         <v>48</v>
       </c>
       <c r="D339">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E339" t="s">
         <v>56</v>
@@ -34269,7 +34272,7 @@
         <v>48</v>
       </c>
       <c r="D340">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E340" t="s">
         <v>56</v>
@@ -34337,7 +34340,7 @@
         <v>48</v>
       </c>
       <c r="D341">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E341" t="s">
         <v>56</v>
@@ -34405,7 +34408,7 @@
         <v>48</v>
       </c>
       <c r="D342">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E342" t="s">
         <v>56</v>

--- a/data/workspace.xlsx
+++ b/data/workspace.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6918" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6918" uniqueCount="974">
   <si>
     <t>FID</t>
   </si>
@@ -1535,9 +1535,6 @@
   </si>
   <si>
     <t>Physpe G</t>
-  </si>
-  <si>
-    <t>Harmon ref 48</t>
   </si>
   <si>
     <t>Kemerait ref 49</t>
@@ -4358,7 +4355,7 @@
   <dimension ref="A1:BD570"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="D331" sqref="D331:D342"/>
+      <selection activeCell="B335" sqref="B335:B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -34062,10 +34059,10 @@
         <v>344</v>
       </c>
       <c r="B337" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C337">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D337">
         <v>2006</v>
@@ -34130,10 +34127,10 @@
         <v>345</v>
       </c>
       <c r="B338" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C338">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D338">
         <v>2006</v>
@@ -34198,10 +34195,10 @@
         <v>346</v>
       </c>
       <c r="B339" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C339">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D339">
         <v>2006</v>
@@ -34266,10 +34263,10 @@
         <v>347</v>
       </c>
       <c r="B340" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C340">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D340">
         <v>2006</v>
@@ -34334,10 +34331,10 @@
         <v>348</v>
       </c>
       <c r="B341" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C341">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D341">
         <v>2006</v>
@@ -34402,10 +34399,10 @@
         <v>349</v>
       </c>
       <c r="B342" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C342">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D342">
         <v>2006</v>
@@ -34470,7 +34467,7 @@
         <v>350</v>
       </c>
       <c r="B343" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C343">
         <v>49</v>
@@ -34482,25 +34479,25 @@
         <v>454</v>
       </c>
       <c r="F343" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H343">
         <v>38855</v>
       </c>
       <c r="J343" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K343">
         <v>2</v>
       </c>
       <c r="L343" t="s">
+        <v>508</v>
+      </c>
+      <c r="M343" t="s">
         <v>509</v>
       </c>
-      <c r="M343" t="s">
+      <c r="N343" t="s">
         <v>510</v>
-      </c>
-      <c r="N343" t="s">
-        <v>511</v>
       </c>
       <c r="O343" t="s">
         <v>83</v>
@@ -34509,7 +34506,7 @@
         <v>79</v>
       </c>
       <c r="Q343" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="R343" t="s">
         <v>64</v>
@@ -34538,7 +34535,7 @@
         <v>351</v>
       </c>
       <c r="B344" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C344">
         <v>49</v>
@@ -34550,25 +34547,25 @@
         <v>454</v>
       </c>
       <c r="F344" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H344">
         <v>38855</v>
       </c>
       <c r="J344" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K344">
         <v>2</v>
       </c>
       <c r="L344" t="s">
+        <v>513</v>
+      </c>
+      <c r="M344" t="s">
         <v>514</v>
       </c>
-      <c r="M344" t="s">
+      <c r="N344" t="s">
         <v>515</v>
-      </c>
-      <c r="N344" t="s">
-        <v>516</v>
       </c>
       <c r="O344" t="s">
         <v>83</v>
@@ -34577,7 +34574,7 @@
         <v>79</v>
       </c>
       <c r="Q344" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R344" t="s">
         <v>64</v>
@@ -34603,7 +34600,7 @@
         <v>352</v>
       </c>
       <c r="B345" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C345">
         <v>49</v>
@@ -34615,25 +34612,25 @@
         <v>454</v>
       </c>
       <c r="F345" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H345">
         <v>38855</v>
       </c>
       <c r="J345" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K345">
         <v>2</v>
       </c>
       <c r="L345" t="s">
+        <v>518</v>
+      </c>
+      <c r="M345" t="s">
         <v>519</v>
       </c>
-      <c r="M345" t="s">
+      <c r="N345" t="s">
         <v>520</v>
-      </c>
-      <c r="N345" t="s">
-        <v>521</v>
       </c>
       <c r="O345" t="s">
         <v>83</v>
@@ -34642,7 +34639,7 @@
         <v>79</v>
       </c>
       <c r="Q345" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R345" t="s">
         <v>64</v>
@@ -34668,7 +34665,7 @@
         <v>353</v>
       </c>
       <c r="B346" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C346">
         <v>49</v>
@@ -34680,25 +34677,25 @@
         <v>454</v>
       </c>
       <c r="F346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H346">
         <v>38855</v>
       </c>
       <c r="J346" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K346">
         <v>2</v>
       </c>
       <c r="L346" t="s">
+        <v>523</v>
+      </c>
+      <c r="M346" t="s">
         <v>524</v>
       </c>
-      <c r="M346" t="s">
+      <c r="N346" t="s">
         <v>525</v>
-      </c>
-      <c r="N346" t="s">
-        <v>526</v>
       </c>
       <c r="O346" t="s">
         <v>83</v>
@@ -34707,7 +34704,7 @@
         <v>79</v>
       </c>
       <c r="Q346" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="R346" t="s">
         <v>64</v>
@@ -34733,7 +34730,7 @@
         <v>354</v>
       </c>
       <c r="B347" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C347">
         <v>49</v>
@@ -34745,25 +34742,25 @@
         <v>454</v>
       </c>
       <c r="F347" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H347">
         <v>38855</v>
       </c>
       <c r="J347" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K347">
         <v>2</v>
       </c>
       <c r="L347" t="s">
+        <v>528</v>
+      </c>
+      <c r="M347" t="s">
         <v>529</v>
       </c>
-      <c r="M347" t="s">
+      <c r="N347" t="s">
         <v>530</v>
-      </c>
-      <c r="N347" t="s">
-        <v>531</v>
       </c>
       <c r="O347" t="s">
         <v>83</v>
@@ -34772,7 +34769,7 @@
         <v>79</v>
       </c>
       <c r="Q347" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="R347" t="s">
         <v>64</v>
@@ -34798,7 +34795,7 @@
         <v>355</v>
       </c>
       <c r="B348" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C348">
         <v>49</v>
@@ -34810,25 +34807,25 @@
         <v>454</v>
       </c>
       <c r="F348" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H348">
         <v>38855</v>
       </c>
       <c r="J348" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K348">
         <v>2</v>
       </c>
       <c r="L348" t="s">
+        <v>533</v>
+      </c>
+      <c r="M348" t="s">
         <v>534</v>
       </c>
-      <c r="M348" t="s">
+      <c r="N348" t="s">
         <v>535</v>
-      </c>
-      <c r="N348" t="s">
-        <v>536</v>
       </c>
       <c r="O348" t="s">
         <v>83</v>
@@ -34837,7 +34834,7 @@
         <v>79</v>
       </c>
       <c r="Q348" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="R348" t="s">
         <v>64</v>
@@ -34863,7 +34860,7 @@
         <v>356</v>
       </c>
       <c r="B349" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C349">
         <v>49</v>
@@ -34875,25 +34872,25 @@
         <v>454</v>
       </c>
       <c r="F349" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H349">
         <v>38855</v>
       </c>
       <c r="J349" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K349">
         <v>2</v>
       </c>
       <c r="L349" t="s">
+        <v>538</v>
+      </c>
+      <c r="M349" t="s">
         <v>539</v>
       </c>
-      <c r="M349" t="s">
+      <c r="N349" t="s">
         <v>540</v>
-      </c>
-      <c r="N349" t="s">
-        <v>541</v>
       </c>
       <c r="O349" t="s">
         <v>69</v>
@@ -34902,7 +34899,7 @@
         <v>79</v>
       </c>
       <c r="Q349" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="R349" t="s">
         <v>64</v>
@@ -34928,7 +34925,7 @@
         <v>357</v>
       </c>
       <c r="B350" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C350">
         <v>49</v>
@@ -34940,25 +34937,25 @@
         <v>454</v>
       </c>
       <c r="F350" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H350">
         <v>38855</v>
       </c>
       <c r="J350" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K350">
         <v>2</v>
       </c>
       <c r="L350" t="s">
+        <v>543</v>
+      </c>
+      <c r="M350" t="s">
         <v>544</v>
       </c>
-      <c r="M350" t="s">
+      <c r="N350" t="s">
         <v>545</v>
-      </c>
-      <c r="N350" t="s">
-        <v>546</v>
       </c>
       <c r="O350" t="s">
         <v>83</v>
@@ -34967,7 +34964,7 @@
         <v>79</v>
       </c>
       <c r="Q350" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="R350" t="s">
         <v>64</v>
@@ -34993,7 +34990,7 @@
         <v>358</v>
       </c>
       <c r="B351" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C351">
         <v>49</v>
@@ -35005,25 +35002,25 @@
         <v>454</v>
       </c>
       <c r="F351" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H351">
         <v>38855</v>
       </c>
       <c r="J351" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K351">
         <v>2</v>
       </c>
       <c r="L351" t="s">
+        <v>548</v>
+      </c>
+      <c r="M351" t="s">
         <v>549</v>
       </c>
-      <c r="M351" t="s">
+      <c r="N351" t="s">
         <v>550</v>
-      </c>
-      <c r="N351" t="s">
-        <v>551</v>
       </c>
       <c r="O351" t="s">
         <v>83</v>
@@ -35032,7 +35029,7 @@
         <v>79</v>
       </c>
       <c r="Q351" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R351" t="s">
         <v>64</v>
@@ -35058,7 +35055,7 @@
         <v>359</v>
       </c>
       <c r="B352" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C352">
         <v>49</v>
@@ -35070,13 +35067,13 @@
         <v>454</v>
       </c>
       <c r="F352" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H352">
         <v>38855</v>
       </c>
       <c r="J352" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K352">
         <v>2</v>
@@ -35085,10 +35082,10 @@
         <v>120</v>
       </c>
       <c r="M352" t="s">
+        <v>553</v>
+      </c>
+      <c r="N352" t="s">
         <v>554</v>
-      </c>
-      <c r="N352" t="s">
-        <v>555</v>
       </c>
       <c r="O352" t="s">
         <v>69</v>
@@ -35123,7 +35120,7 @@
         <v>360</v>
       </c>
       <c r="B353" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C353">
         <v>49</v>
@@ -35135,13 +35132,13 @@
         <v>454</v>
       </c>
       <c r="F353" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H353">
         <v>38855</v>
       </c>
       <c r="J353" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K353">
         <v>2</v>
@@ -35188,7 +35185,7 @@
         <v>361</v>
       </c>
       <c r="B354" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C354">
         <v>49</v>
@@ -35200,13 +35197,13 @@
         <v>454</v>
       </c>
       <c r="F354" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H354">
         <v>38855</v>
       </c>
       <c r="J354" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K354">
         <v>2</v>
@@ -35218,7 +35215,7 @@
         <v>348</v>
       </c>
       <c r="N354" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O354" t="s">
         <v>78</v>
@@ -35253,7 +35250,7 @@
         <v>362</v>
       </c>
       <c r="B355" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C355">
         <v>50</v>
@@ -35265,19 +35262,19 @@
         <v>454</v>
       </c>
       <c r="F355" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H355">
         <v>38860</v>
       </c>
       <c r="J355" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K355">
         <v>8</v>
       </c>
       <c r="L355" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M355" t="s">
         <v>456</v>
@@ -35292,7 +35289,7 @@
         <v>86</v>
       </c>
       <c r="Q355" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R355" t="s">
         <v>64</v>
@@ -35315,7 +35312,7 @@
         <v>363</v>
       </c>
       <c r="B356" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C356">
         <v>50</v>
@@ -35327,25 +35324,25 @@
         <v>454</v>
       </c>
       <c r="F356" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H356">
         <v>38860</v>
       </c>
       <c r="J356" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K356">
         <v>2</v>
       </c>
       <c r="L356" t="s">
+        <v>564</v>
+      </c>
+      <c r="M356" t="s">
         <v>565</v>
       </c>
-      <c r="M356" t="s">
+      <c r="N356" t="s">
         <v>566</v>
-      </c>
-      <c r="N356" t="s">
-        <v>567</v>
       </c>
       <c r="O356" t="s">
         <v>83</v>
@@ -35374,7 +35371,7 @@
         <v>364</v>
       </c>
       <c r="B357" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C357">
         <v>50</v>
@@ -35386,25 +35383,25 @@
         <v>454</v>
       </c>
       <c r="F357" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H357">
         <v>38860</v>
       </c>
       <c r="J357" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K357">
         <v>2</v>
       </c>
       <c r="L357" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M357" t="s">
+        <v>567</v>
+      </c>
+      <c r="N357" t="s">
         <v>568</v>
-      </c>
-      <c r="N357" t="s">
-        <v>569</v>
       </c>
       <c r="O357" t="s">
         <v>83</v>
@@ -35433,7 +35430,7 @@
         <v>365</v>
       </c>
       <c r="B358" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C358">
         <v>50</v>
@@ -35445,25 +35442,25 @@
         <v>454</v>
       </c>
       <c r="F358" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H358">
         <v>38860</v>
       </c>
       <c r="J358" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K358">
         <v>2</v>
       </c>
       <c r="L358" t="s">
+        <v>570</v>
+      </c>
+      <c r="M358" t="s">
         <v>571</v>
       </c>
-      <c r="M358" t="s">
+      <c r="N358" t="s">
         <v>572</v>
-      </c>
-      <c r="N358" t="s">
-        <v>573</v>
       </c>
       <c r="O358" t="s">
         <v>83</v>
@@ -35492,7 +35489,7 @@
         <v>366</v>
       </c>
       <c r="B359" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C359">
         <v>50</v>
@@ -35504,19 +35501,19 @@
         <v>454</v>
       </c>
       <c r="F359" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H359">
         <v>38860</v>
       </c>
       <c r="J359" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K359">
         <v>1</v>
       </c>
       <c r="L359" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M359" t="s">
         <v>67</v>
@@ -35551,7 +35548,7 @@
         <v>367</v>
       </c>
       <c r="B360" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C360">
         <v>50</v>
@@ -35563,19 +35560,19 @@
         <v>454</v>
       </c>
       <c r="F360" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H360">
         <v>38860</v>
       </c>
       <c r="J360" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K360">
         <v>1</v>
       </c>
       <c r="L360" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M360" t="s">
         <v>67</v>
@@ -35584,7 +35581,7 @@
         <v>68</v>
       </c>
       <c r="O360" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P360" t="s">
         <v>69</v>
@@ -35610,7 +35607,7 @@
         <v>368</v>
       </c>
       <c r="B361" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C361">
         <v>50</v>
@@ -35622,19 +35619,19 @@
         <v>454</v>
       </c>
       <c r="F361" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H361">
         <v>38860</v>
       </c>
       <c r="J361" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K361">
         <v>2</v>
       </c>
       <c r="L361" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M361" t="s">
         <v>67</v>
@@ -35669,7 +35666,7 @@
         <v>369</v>
       </c>
       <c r="B362" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C362">
         <v>50</v>
@@ -35681,25 +35678,25 @@
         <v>454</v>
       </c>
       <c r="F362" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H362">
         <v>38860</v>
       </c>
       <c r="J362" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K362">
         <v>1</v>
       </c>
       <c r="L362" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M362" t="s">
+        <v>571</v>
+      </c>
+      <c r="N362" t="s">
         <v>572</v>
-      </c>
-      <c r="N362" t="s">
-        <v>573</v>
       </c>
       <c r="O362" t="s">
         <v>83</v>
@@ -35728,7 +35725,7 @@
         <v>370</v>
       </c>
       <c r="B363" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C363">
         <v>50</v>
@@ -35740,25 +35737,25 @@
         <v>454</v>
       </c>
       <c r="F363" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H363">
         <v>38860</v>
       </c>
       <c r="J363" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K363">
         <v>1</v>
       </c>
       <c r="L363" t="s">
+        <v>580</v>
+      </c>
+      <c r="M363" t="s">
         <v>581</v>
       </c>
-      <c r="M363" t="s">
+      <c r="N363" t="s">
         <v>582</v>
-      </c>
-      <c r="N363" t="s">
-        <v>583</v>
       </c>
       <c r="O363" t="s">
         <v>83</v>
@@ -35787,7 +35784,7 @@
         <v>371</v>
       </c>
       <c r="B364" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C364">
         <v>50</v>
@@ -35799,25 +35796,25 @@
         <v>454</v>
       </c>
       <c r="F364" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H364">
         <v>38860</v>
       </c>
       <c r="J364" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K364">
         <v>1</v>
       </c>
       <c r="L364" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M364" t="s">
+        <v>581</v>
+      </c>
+      <c r="N364" t="s">
         <v>582</v>
-      </c>
-      <c r="N364" t="s">
-        <v>583</v>
       </c>
       <c r="O364" t="s">
         <v>83</v>
@@ -35846,7 +35843,7 @@
         <v>372</v>
       </c>
       <c r="B365" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C365">
         <v>51</v>
@@ -35864,7 +35861,7 @@
         <v>38868</v>
       </c>
       <c r="J365" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K365">
         <v>2</v>
@@ -35914,7 +35911,7 @@
         <v>373</v>
       </c>
       <c r="B366" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C366">
         <v>51</v>
@@ -35932,7 +35929,7 @@
         <v>38868</v>
       </c>
       <c r="J366" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K366">
         <v>2</v>
@@ -35944,7 +35941,7 @@
         <v>376</v>
       </c>
       <c r="N366" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O366" t="s">
         <v>83</v>
@@ -35953,7 +35950,7 @@
         <v>79</v>
       </c>
       <c r="Q366" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R366" t="s">
         <v>64</v>
@@ -35982,7 +35979,7 @@
         <v>374</v>
       </c>
       <c r="B367" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C367">
         <v>51</v>
@@ -36000,7 +35997,7 @@
         <v>38868</v>
       </c>
       <c r="J367" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K367">
         <v>2</v>
@@ -36050,7 +36047,7 @@
         <v>375</v>
       </c>
       <c r="B368" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C368">
         <v>51</v>
@@ -36068,19 +36065,19 @@
         <v>38868</v>
       </c>
       <c r="J368" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K368">
         <v>2</v>
       </c>
       <c r="L368" t="s">
+        <v>588</v>
+      </c>
+      <c r="M368" t="s">
         <v>589</v>
       </c>
-      <c r="M368" t="s">
+      <c r="N368" t="s">
         <v>590</v>
-      </c>
-      <c r="N368" t="s">
-        <v>591</v>
       </c>
       <c r="O368" t="s">
         <v>78</v>
@@ -36118,7 +36115,7 @@
         <v>376</v>
       </c>
       <c r="B369" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C369">
         <v>51</v>
@@ -36136,7 +36133,7 @@
         <v>38868</v>
       </c>
       <c r="J369" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K369">
         <v>2</v>
@@ -36174,7 +36171,7 @@
         <v>389</v>
       </c>
       <c r="B370" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C370">
         <v>53</v>
@@ -36195,13 +36192,13 @@
         <v>39240</v>
       </c>
       <c r="J370" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K370">
         <v>2</v>
       </c>
       <c r="L370" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M370" t="s">
         <v>456</v>
@@ -36251,7 +36248,7 @@
         <v>390</v>
       </c>
       <c r="B371" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C371">
         <v>53</v>
@@ -36272,13 +36269,13 @@
         <v>39240</v>
       </c>
       <c r="J371" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K371">
         <v>2</v>
       </c>
       <c r="L371" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M371" t="s">
         <v>456</v>
@@ -36293,7 +36290,7 @@
         <v>456</v>
       </c>
       <c r="Q371" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R371" t="s">
         <v>64</v>
@@ -36328,7 +36325,7 @@
         <v>391</v>
       </c>
       <c r="B372" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C372">
         <v>53</v>
@@ -36349,19 +36346,19 @@
         <v>39240</v>
       </c>
       <c r="J372" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K372">
         <v>2</v>
       </c>
       <c r="L372" t="s">
+        <v>596</v>
+      </c>
+      <c r="M372" t="s">
         <v>597</v>
       </c>
-      <c r="M372" t="s">
+      <c r="N372" t="s">
         <v>598</v>
-      </c>
-      <c r="N372" t="s">
-        <v>599</v>
       </c>
       <c r="O372" t="s">
         <v>83</v>
@@ -36405,7 +36402,7 @@
         <v>392</v>
       </c>
       <c r="B373" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C373">
         <v>53</v>
@@ -36426,13 +36423,13 @@
         <v>39240</v>
       </c>
       <c r="J373" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K373">
         <v>2</v>
       </c>
       <c r="L373" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M373" t="s">
         <v>456</v>
@@ -36482,7 +36479,7 @@
         <v>393</v>
       </c>
       <c r="B374" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C374">
         <v>53</v>
@@ -36503,16 +36500,16 @@
         <v>39240</v>
       </c>
       <c r="J374" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K374">
         <v>2</v>
       </c>
       <c r="L374" t="s">
+        <v>600</v>
+      </c>
+      <c r="M374" t="s">
         <v>601</v>
-      </c>
-      <c r="M374" t="s">
-        <v>602</v>
       </c>
       <c r="N374" t="s">
         <v>101</v>
@@ -36559,7 +36556,7 @@
         <v>394</v>
       </c>
       <c r="B375" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C375">
         <v>53</v>
@@ -36580,19 +36577,19 @@
         <v>39240</v>
       </c>
       <c r="J375" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K375">
         <v>2</v>
       </c>
       <c r="L375" t="s">
+        <v>602</v>
+      </c>
+      <c r="M375" t="s">
         <v>603</v>
       </c>
-      <c r="M375" t="s">
+      <c r="N375" t="s">
         <v>604</v>
-      </c>
-      <c r="N375" t="s">
-        <v>605</v>
       </c>
       <c r="O375" t="s">
         <v>83</v>
@@ -36601,7 +36598,7 @@
         <v>79</v>
       </c>
       <c r="Q375" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="R375" t="s">
         <v>64</v>
@@ -36636,7 +36633,7 @@
         <v>395</v>
       </c>
       <c r="B376" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C376">
         <v>54</v>
@@ -36651,7 +36648,7 @@
         <v>315</v>
       </c>
       <c r="G376" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H376">
         <v>39241</v>
@@ -36663,7 +36660,7 @@
         <v>1</v>
       </c>
       <c r="L376" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M376" t="s">
         <v>115</v>
@@ -36687,7 +36684,7 @@
         <v>3</v>
       </c>
       <c r="T376" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U376">
         <v>75.900000000000006</v>
@@ -36701,7 +36698,7 @@
         <v>396</v>
       </c>
       <c r="B377" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C377">
         <v>54</v>
@@ -36716,7 +36713,7 @@
         <v>315</v>
       </c>
       <c r="G377" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H377">
         <v>39241</v>
@@ -36752,7 +36749,7 @@
         <v>3</v>
       </c>
       <c r="T377" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U377">
         <v>60.1</v>
@@ -36766,7 +36763,7 @@
         <v>397</v>
       </c>
       <c r="B378" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C378">
         <v>54</v>
@@ -36781,7 +36778,7 @@
         <v>315</v>
       </c>
       <c r="G378" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H378">
         <v>39241</v>
@@ -36793,13 +36790,13 @@
         <v>1</v>
       </c>
       <c r="L378" t="s">
+        <v>610</v>
+      </c>
+      <c r="M378" t="s">
         <v>611</v>
       </c>
-      <c r="M378" t="s">
+      <c r="N378" t="s">
         <v>612</v>
-      </c>
-      <c r="N378" t="s">
-        <v>613</v>
       </c>
       <c r="O378" t="s">
         <v>83</v>
@@ -36817,7 +36814,7 @@
         <v>3</v>
       </c>
       <c r="T378" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U378">
         <v>19.2</v>
@@ -36831,7 +36828,7 @@
         <v>398</v>
       </c>
       <c r="B379" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C379">
         <v>54</v>
@@ -36846,7 +36843,7 @@
         <v>315</v>
       </c>
       <c r="G379" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H379">
         <v>39241</v>
@@ -36882,7 +36879,7 @@
         <v>3</v>
       </c>
       <c r="T379" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U379">
         <v>34</v>
@@ -36896,7 +36893,7 @@
         <v>399</v>
       </c>
       <c r="B380" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C380">
         <v>54</v>
@@ -36911,7 +36908,7 @@
         <v>315</v>
       </c>
       <c r="G380" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H380">
         <v>39241</v>
@@ -36923,13 +36920,13 @@
         <v>1</v>
       </c>
       <c r="L380" t="s">
+        <v>613</v>
+      </c>
+      <c r="M380" t="s">
         <v>614</v>
       </c>
-      <c r="M380" t="s">
+      <c r="N380" t="s">
         <v>615</v>
-      </c>
-      <c r="N380" t="s">
-        <v>616</v>
       </c>
       <c r="O380" t="s">
         <v>83</v>
@@ -36938,7 +36935,7 @@
         <v>79</v>
       </c>
       <c r="Q380" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="R380" t="s">
         <v>64</v>
@@ -36947,7 +36944,7 @@
         <v>3</v>
       </c>
       <c r="T380" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U380">
         <v>50.5</v>
@@ -36961,7 +36958,7 @@
         <v>400</v>
       </c>
       <c r="B381" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C381">
         <v>54</v>
@@ -36976,7 +36973,7 @@
         <v>315</v>
       </c>
       <c r="G381" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H381">
         <v>39241</v>
@@ -37012,7 +37009,7 @@
         <v>3</v>
       </c>
       <c r="T381" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U381">
         <v>34.799999999999997</v>
@@ -37026,7 +37023,7 @@
         <v>401</v>
       </c>
       <c r="B382" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C382">
         <v>54</v>
@@ -37041,7 +37038,7 @@
         <v>315</v>
       </c>
       <c r="G382" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H382">
         <v>39241</v>
@@ -37056,10 +37053,10 @@
         <v>120</v>
       </c>
       <c r="M382" t="s">
+        <v>553</v>
+      </c>
+      <c r="N382" t="s">
         <v>554</v>
-      </c>
-      <c r="N382" t="s">
-        <v>555</v>
       </c>
       <c r="O382" t="s">
         <v>69</v>
@@ -37077,7 +37074,7 @@
         <v>3</v>
       </c>
       <c r="T382" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U382">
         <v>14</v>
@@ -37091,7 +37088,7 @@
         <v>402</v>
       </c>
       <c r="B383" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C383">
         <v>54</v>
@@ -37106,7 +37103,7 @@
         <v>315</v>
       </c>
       <c r="G383" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H383">
         <v>39241</v>
@@ -37124,7 +37121,7 @@
         <v>348</v>
       </c>
       <c r="N383" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O383" t="s">
         <v>78</v>
@@ -37142,7 +37139,7 @@
         <v>3</v>
       </c>
       <c r="T383" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U383">
         <v>51.9</v>
@@ -37156,7 +37153,7 @@
         <v>403</v>
       </c>
       <c r="B384" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C384">
         <v>54</v>
@@ -37171,7 +37168,7 @@
         <v>315</v>
       </c>
       <c r="G384" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H384">
         <v>39241</v>
@@ -37186,7 +37183,7 @@
         <v>99</v>
       </c>
       <c r="M384" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N384" t="s">
         <v>101</v>
@@ -37221,7 +37218,7 @@
         <v>404</v>
       </c>
       <c r="B385" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C385">
         <v>55</v>
@@ -37242,7 +37239,7 @@
         <v>38860</v>
       </c>
       <c r="J385" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K385">
         <v>2</v>
@@ -37251,7 +37248,7 @@
         <v>99</v>
       </c>
       <c r="M385" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N385" t="s">
         <v>101</v>
@@ -37304,7 +37301,7 @@
         <v>405</v>
       </c>
       <c r="B386" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C386">
         <v>55</v>
@@ -37325,7 +37322,7 @@
         <v>38860</v>
       </c>
       <c r="J386" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K386">
         <v>2</v>
@@ -37334,7 +37331,7 @@
         <v>99</v>
       </c>
       <c r="M386" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N386" t="s">
         <v>101</v>
@@ -37387,7 +37384,7 @@
         <v>406</v>
       </c>
       <c r="B387" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C387">
         <v>55</v>
@@ -37408,7 +37405,7 @@
         <v>38860</v>
       </c>
       <c r="J387" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K387">
         <v>2</v>
@@ -37417,10 +37414,10 @@
         <v>102</v>
       </c>
       <c r="M387" t="s">
+        <v>619</v>
+      </c>
+      <c r="N387" t="s">
         <v>620</v>
-      </c>
-      <c r="N387" t="s">
-        <v>621</v>
       </c>
       <c r="O387" t="s">
         <v>83</v>
@@ -37470,7 +37467,7 @@
         <v>407</v>
       </c>
       <c r="B388" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C388">
         <v>55</v>
@@ -37491,7 +37488,7 @@
         <v>38860</v>
       </c>
       <c r="J388" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K388">
         <v>2</v>
@@ -37500,10 +37497,10 @@
         <v>227</v>
       </c>
       <c r="M388" t="s">
+        <v>621</v>
+      </c>
+      <c r="N388" t="s">
         <v>622</v>
-      </c>
-      <c r="N388" t="s">
-        <v>623</v>
       </c>
       <c r="O388" t="s">
         <v>83</v>
@@ -37553,7 +37550,7 @@
         <v>408</v>
       </c>
       <c r="B389" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C389">
         <v>55</v>
@@ -37574,22 +37571,22 @@
         <v>38860</v>
       </c>
       <c r="J389" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K389">
         <v>2</v>
       </c>
       <c r="L389" t="s">
+        <v>623</v>
+      </c>
+      <c r="M389" t="s">
         <v>624</v>
       </c>
-      <c r="M389" t="s">
+      <c r="N389" t="s">
         <v>625</v>
       </c>
-      <c r="N389" t="s">
+      <c r="Q389" t="s">
         <v>626</v>
-      </c>
-      <c r="Q389" t="s">
-        <v>627</v>
       </c>
       <c r="R389" t="s">
         <v>64</v>
@@ -37630,7 +37627,7 @@
         <v>409</v>
       </c>
       <c r="B390" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C390">
         <v>55</v>
@@ -37651,7 +37648,7 @@
         <v>38860</v>
       </c>
       <c r="J390" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K390">
         <v>2</v>
@@ -37713,7 +37710,7 @@
         <v>410</v>
       </c>
       <c r="B391" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C391">
         <v>55</v>
@@ -37734,7 +37731,7 @@
         <v>38860</v>
       </c>
       <c r="J391" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K391">
         <v>2</v>
@@ -37796,7 +37793,7 @@
         <v>411</v>
       </c>
       <c r="B392" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C392">
         <v>55</v>
@@ -37817,13 +37814,13 @@
         <v>38860</v>
       </c>
       <c r="J392" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K392">
         <v>2</v>
       </c>
       <c r="L392" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M392" t="s">
         <v>136</v>
@@ -37879,7 +37876,7 @@
         <v>412</v>
       </c>
       <c r="B393" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C393">
         <v>55</v>
@@ -37900,16 +37897,16 @@
         <v>38860</v>
       </c>
       <c r="J393" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K393">
         <v>2</v>
       </c>
       <c r="L393" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M393" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N393" t="s">
         <v>101</v>
@@ -37962,7 +37959,7 @@
         <v>413</v>
       </c>
       <c r="B394" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C394">
         <v>55</v>
@@ -37983,7 +37980,7 @@
         <v>38860</v>
       </c>
       <c r="J394" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K394">
         <v>2</v>
@@ -37992,10 +37989,10 @@
         <v>227</v>
       </c>
       <c r="M394" t="s">
+        <v>621</v>
+      </c>
+      <c r="N394" t="s">
         <v>622</v>
-      </c>
-      <c r="N394" t="s">
-        <v>623</v>
       </c>
       <c r="O394" t="s">
         <v>83</v>
@@ -38039,7 +38036,7 @@
         <v>414</v>
       </c>
       <c r="B395" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C395">
         <v>51</v>
@@ -38051,25 +38048,25 @@
         <v>454</v>
       </c>
       <c r="F395" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H395">
         <v>38868</v>
       </c>
       <c r="J395" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K395">
         <v>2</v>
       </c>
       <c r="L395" t="s">
+        <v>631</v>
+      </c>
+      <c r="M395" t="s">
         <v>632</v>
       </c>
-      <c r="M395" t="s">
+      <c r="N395" t="s">
         <v>633</v>
-      </c>
-      <c r="N395" t="s">
-        <v>634</v>
       </c>
       <c r="O395" t="s">
         <v>78</v>
@@ -38098,7 +38095,7 @@
         <v>415</v>
       </c>
       <c r="B396" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C396">
         <v>51</v>
@@ -38110,13 +38107,13 @@
         <v>454</v>
       </c>
       <c r="F396" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H396">
         <v>38868</v>
       </c>
       <c r="J396" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K396">
         <v>2</v>
@@ -38125,7 +38122,7 @@
         <v>150</v>
       </c>
       <c r="M396" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N396" t="s">
         <v>77</v>
@@ -38157,7 +38154,7 @@
         <v>416</v>
       </c>
       <c r="B397" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C397">
         <v>59</v>
@@ -38175,7 +38172,7 @@
         <v>38868</v>
       </c>
       <c r="J397" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K397">
         <v>1</v>
@@ -38187,7 +38184,7 @@
         <v>121</v>
       </c>
       <c r="N397" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O397" t="s">
         <v>78</v>
@@ -38216,7 +38213,7 @@
         <v>417</v>
       </c>
       <c r="B398" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C398">
         <v>59</v>
@@ -38234,7 +38231,7 @@
         <v>38868</v>
       </c>
       <c r="J398" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K398">
         <v>1</v>
@@ -38246,7 +38243,7 @@
         <v>121</v>
       </c>
       <c r="N398" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O398" t="s">
         <v>78</v>
@@ -38275,7 +38272,7 @@
         <v>418</v>
       </c>
       <c r="B399" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C399">
         <v>59</v>
@@ -38293,7 +38290,7 @@
         <v>38868</v>
       </c>
       <c r="J399" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K399">
         <v>1</v>
@@ -38305,7 +38302,7 @@
         <v>121</v>
       </c>
       <c r="N399" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O399" t="s">
         <v>78</v>
@@ -38334,7 +38331,7 @@
         <v>419</v>
       </c>
       <c r="B400" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C400">
         <v>59</v>
@@ -38352,7 +38349,7 @@
         <v>38868</v>
       </c>
       <c r="J400" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K400">
         <v>1</v>
@@ -38361,10 +38358,10 @@
         <v>107</v>
       </c>
       <c r="M400" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N400" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O400" t="s">
         <v>78</v>
@@ -38393,7 +38390,7 @@
         <v>420</v>
       </c>
       <c r="B401" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C401">
         <v>59</v>
@@ -38411,19 +38408,19 @@
         <v>38868</v>
       </c>
       <c r="J401" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K401">
         <v>1</v>
       </c>
       <c r="L401" t="s">
+        <v>638</v>
+      </c>
+      <c r="M401" t="s">
         <v>639</v>
       </c>
-      <c r="M401" t="s">
+      <c r="N401" t="s">
         <v>640</v>
-      </c>
-      <c r="N401" t="s">
-        <v>641</v>
       </c>
       <c r="O401" t="s">
         <v>83</v>
@@ -38432,7 +38429,7 @@
         <v>79</v>
       </c>
       <c r="Q401" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S401">
         <v>4</v>
@@ -38452,7 +38449,7 @@
         <v>421</v>
       </c>
       <c r="B402" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C402">
         <v>59</v>
@@ -38470,7 +38467,7 @@
         <v>38868</v>
       </c>
       <c r="J402" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K402">
         <v>1</v>
@@ -38482,7 +38479,7 @@
         <v>121</v>
       </c>
       <c r="N402" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O402" t="s">
         <v>78</v>
@@ -38511,7 +38508,7 @@
         <v>422</v>
       </c>
       <c r="B403" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C403">
         <v>59</v>
@@ -38529,7 +38526,7 @@
         <v>38868</v>
       </c>
       <c r="J403" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K403">
         <v>1</v>
@@ -38541,7 +38538,7 @@
         <v>121</v>
       </c>
       <c r="N403" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O403" t="s">
         <v>78</v>
@@ -38570,7 +38567,7 @@
         <v>423</v>
       </c>
       <c r="B404" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C404">
         <v>59</v>
@@ -38588,7 +38585,7 @@
         <v>38868</v>
       </c>
       <c r="J404" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K404">
         <v>1</v>
@@ -38600,7 +38597,7 @@
         <v>121</v>
       </c>
       <c r="N404" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O404" t="s">
         <v>78</v>
@@ -38629,7 +38626,7 @@
         <v>424</v>
       </c>
       <c r="B405" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C405">
         <v>59</v>
@@ -38647,7 +38644,7 @@
         <v>38868</v>
       </c>
       <c r="J405" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K405">
         <v>1</v>
@@ -38656,10 +38653,10 @@
         <v>107</v>
       </c>
       <c r="M405" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N405" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O405" t="s">
         <v>78</v>
@@ -38688,7 +38685,7 @@
         <v>425</v>
       </c>
       <c r="B406" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C406">
         <v>59</v>
@@ -38706,19 +38703,19 @@
         <v>38868</v>
       </c>
       <c r="J406" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K406">
         <v>1</v>
       </c>
       <c r="L406" t="s">
+        <v>638</v>
+      </c>
+      <c r="M406" t="s">
         <v>639</v>
       </c>
-      <c r="M406" t="s">
+      <c r="N406" t="s">
         <v>640</v>
-      </c>
-      <c r="N406" t="s">
-        <v>641</v>
       </c>
       <c r="O406" t="s">
         <v>83</v>
@@ -38727,7 +38724,7 @@
         <v>79</v>
       </c>
       <c r="Q406" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S406">
         <v>4</v>
@@ -38747,7 +38744,7 @@
         <v>426</v>
       </c>
       <c r="B407" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C407">
         <v>59</v>
@@ -38765,7 +38762,7 @@
         <v>38868</v>
       </c>
       <c r="J407" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K407">
         <v>1</v>
@@ -38777,7 +38774,7 @@
         <v>121</v>
       </c>
       <c r="N407" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O407" t="s">
         <v>78</v>
@@ -38806,7 +38803,7 @@
         <v>427</v>
       </c>
       <c r="B408" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C408">
         <v>59</v>
@@ -38824,7 +38821,7 @@
         <v>38868</v>
       </c>
       <c r="J408" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K408">
         <v>1</v>
@@ -38836,7 +38833,7 @@
         <v>121</v>
       </c>
       <c r="N408" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O408" t="s">
         <v>78</v>
@@ -38865,7 +38862,7 @@
         <v>428</v>
       </c>
       <c r="B409" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C409">
         <v>59</v>
@@ -38883,7 +38880,7 @@
         <v>38868</v>
       </c>
       <c r="J409" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K409">
         <v>1</v>
@@ -38895,7 +38892,7 @@
         <v>121</v>
       </c>
       <c r="N409" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O409" t="s">
         <v>78</v>
@@ -38924,7 +38921,7 @@
         <v>429</v>
       </c>
       <c r="B410" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C410">
         <v>59</v>
@@ -38942,7 +38939,7 @@
         <v>38868</v>
       </c>
       <c r="J410" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K410">
         <v>1</v>
@@ -38951,10 +38948,10 @@
         <v>107</v>
       </c>
       <c r="M410" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N410" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O410" t="s">
         <v>78</v>
@@ -38983,7 +38980,7 @@
         <v>430</v>
       </c>
       <c r="B411" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C411">
         <v>59</v>
@@ -39001,19 +38998,19 @@
         <v>38868</v>
       </c>
       <c r="J411" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K411">
         <v>1</v>
       </c>
       <c r="L411" t="s">
+        <v>638</v>
+      </c>
+      <c r="M411" t="s">
         <v>639</v>
       </c>
-      <c r="M411" t="s">
+      <c r="N411" t="s">
         <v>640</v>
-      </c>
-      <c r="N411" t="s">
-        <v>641</v>
       </c>
       <c r="O411" t="s">
         <v>83</v>
@@ -39022,7 +39019,7 @@
         <v>79</v>
       </c>
       <c r="Q411" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S411">
         <v>4</v>
@@ -39042,7 +39039,7 @@
         <v>431</v>
       </c>
       <c r="B412" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C412">
         <v>60</v>
@@ -39054,10 +39051,10 @@
         <v>314</v>
       </c>
       <c r="F412" t="s">
+        <v>645</v>
+      </c>
+      <c r="G412" t="s">
         <v>646</v>
-      </c>
-      <c r="G412" t="s">
-        <v>647</v>
       </c>
       <c r="H412">
         <v>38888</v>
@@ -39084,7 +39081,7 @@
         <v>69</v>
       </c>
       <c r="Q412" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="S412">
         <v>4</v>
@@ -39110,7 +39107,7 @@
         <v>432</v>
       </c>
       <c r="B413" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C413">
         <v>60</v>
@@ -39122,10 +39119,10 @@
         <v>314</v>
       </c>
       <c r="F413" t="s">
+        <v>645</v>
+      </c>
+      <c r="G413" t="s">
         <v>646</v>
-      </c>
-      <c r="G413" t="s">
-        <v>647</v>
       </c>
       <c r="H413">
         <v>38888</v>
@@ -39137,13 +39134,13 @@
         <v>1</v>
       </c>
       <c r="L413" t="s">
+        <v>648</v>
+      </c>
+      <c r="M413" t="s">
         <v>649</v>
       </c>
-      <c r="M413" t="s">
+      <c r="N413" t="s">
         <v>650</v>
-      </c>
-      <c r="N413" t="s">
-        <v>651</v>
       </c>
       <c r="O413" t="s">
         <v>69</v>
@@ -39178,7 +39175,7 @@
         <v>433</v>
       </c>
       <c r="B414" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C414">
         <v>60</v>
@@ -39190,10 +39187,10 @@
         <v>314</v>
       </c>
       <c r="F414" t="s">
+        <v>645</v>
+      </c>
+      <c r="G414" t="s">
         <v>646</v>
-      </c>
-      <c r="G414" t="s">
-        <v>647</v>
       </c>
       <c r="H414">
         <v>38888</v>
@@ -39205,13 +39202,13 @@
         <v>1</v>
       </c>
       <c r="L414" t="s">
+        <v>648</v>
+      </c>
+      <c r="M414" t="s">
         <v>649</v>
       </c>
-      <c r="M414" t="s">
+      <c r="N414" t="s">
         <v>650</v>
-      </c>
-      <c r="N414" t="s">
-        <v>651</v>
       </c>
       <c r="O414" t="s">
         <v>69</v>
@@ -39246,7 +39243,7 @@
         <v>434</v>
       </c>
       <c r="B415" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C415">
         <v>60</v>
@@ -39258,10 +39255,10 @@
         <v>314</v>
       </c>
       <c r="F415" t="s">
+        <v>645</v>
+      </c>
+      <c r="G415" t="s">
         <v>646</v>
-      </c>
-      <c r="G415" t="s">
-        <v>647</v>
       </c>
       <c r="H415">
         <v>38888</v>
@@ -39276,10 +39273,10 @@
         <v>99</v>
       </c>
       <c r="M415" t="s">
+        <v>651</v>
+      </c>
+      <c r="N415" t="s">
         <v>652</v>
-      </c>
-      <c r="N415" t="s">
-        <v>653</v>
       </c>
       <c r="O415" t="s">
         <v>78</v>
@@ -39314,7 +39311,7 @@
         <v>435</v>
       </c>
       <c r="B416" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C416">
         <v>60</v>
@@ -39326,10 +39323,10 @@
         <v>314</v>
       </c>
       <c r="F416" t="s">
+        <v>645</v>
+      </c>
+      <c r="G416" t="s">
         <v>646</v>
-      </c>
-      <c r="G416" t="s">
-        <v>647</v>
       </c>
       <c r="H416">
         <v>38888</v>
@@ -39341,13 +39338,13 @@
         <v>1</v>
       </c>
       <c r="L416" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M416" t="s">
+        <v>651</v>
+      </c>
+      <c r="N416" t="s">
         <v>652</v>
-      </c>
-      <c r="N416" t="s">
-        <v>653</v>
       </c>
       <c r="O416" t="s">
         <v>78</v>
@@ -39356,7 +39353,7 @@
         <v>78</v>
       </c>
       <c r="Q416" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S416">
         <v>4</v>
@@ -39382,7 +39379,7 @@
         <v>436</v>
       </c>
       <c r="B417" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C417">
         <v>60</v>
@@ -39394,16 +39391,16 @@
         <v>314</v>
       </c>
       <c r="F417" t="s">
+        <v>645</v>
+      </c>
+      <c r="G417" t="s">
         <v>646</v>
-      </c>
-      <c r="G417" t="s">
-        <v>647</v>
       </c>
       <c r="H417">
         <v>38888</v>
       </c>
       <c r="J417" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K417">
         <v>2</v>
@@ -39412,10 +39409,10 @@
         <v>120</v>
       </c>
       <c r="M417" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N417" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O417" t="s">
         <v>78</v>
@@ -39450,7 +39447,7 @@
         <v>437</v>
       </c>
       <c r="B418" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C418">
         <v>60</v>
@@ -39462,10 +39459,10 @@
         <v>314</v>
       </c>
       <c r="F418" t="s">
+        <v>645</v>
+      </c>
+      <c r="G418" t="s">
         <v>646</v>
-      </c>
-      <c r="G418" t="s">
-        <v>647</v>
       </c>
       <c r="H418">
         <v>38888</v>
@@ -39480,10 +39477,10 @@
         <v>120</v>
       </c>
       <c r="M418" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N418" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O418" t="s">
         <v>78</v>
@@ -39518,7 +39515,7 @@
         <v>438</v>
       </c>
       <c r="B419" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C419">
         <v>60</v>
@@ -39530,10 +39527,10 @@
         <v>314</v>
       </c>
       <c r="F419" t="s">
+        <v>645</v>
+      </c>
+      <c r="G419" t="s">
         <v>646</v>
-      </c>
-      <c r="G419" t="s">
-        <v>647</v>
       </c>
       <c r="H419">
         <v>38888</v>
@@ -39586,7 +39583,7 @@
         <v>439</v>
       </c>
       <c r="B420" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C420">
         <v>60</v>
@@ -39598,10 +39595,10 @@
         <v>314</v>
       </c>
       <c r="F420" t="s">
+        <v>645</v>
+      </c>
+      <c r="G420" t="s">
         <v>646</v>
-      </c>
-      <c r="G420" t="s">
-        <v>647</v>
       </c>
       <c r="H420">
         <v>38888</v>
@@ -39654,7 +39651,7 @@
         <v>440</v>
       </c>
       <c r="B421" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C421">
         <v>60</v>
@@ -39666,10 +39663,10 @@
         <v>314</v>
       </c>
       <c r="F421" t="s">
+        <v>645</v>
+      </c>
+      <c r="G421" t="s">
         <v>646</v>
-      </c>
-      <c r="G421" t="s">
-        <v>647</v>
       </c>
       <c r="H421">
         <v>38888</v>
@@ -39722,7 +39719,7 @@
         <v>441</v>
       </c>
       <c r="B422" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C422">
         <v>60</v>
@@ -39734,10 +39731,10 @@
         <v>314</v>
       </c>
       <c r="F422" t="s">
+        <v>645</v>
+      </c>
+      <c r="G422" t="s">
         <v>646</v>
-      </c>
-      <c r="G422" t="s">
-        <v>647</v>
       </c>
       <c r="H422">
         <v>38888</v>
@@ -39752,7 +39749,7 @@
         <v>125</v>
       </c>
       <c r="M422" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N422" t="s">
         <v>127</v>
@@ -39790,7 +39787,7 @@
         <v>442</v>
       </c>
       <c r="B423" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C423">
         <v>60</v>
@@ -39802,28 +39799,28 @@
         <v>314</v>
       </c>
       <c r="F423" t="s">
+        <v>645</v>
+      </c>
+      <c r="G423" t="s">
         <v>646</v>
-      </c>
-      <c r="G423" t="s">
-        <v>647</v>
       </c>
       <c r="H423">
         <v>38888</v>
       </c>
       <c r="J423" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K423">
         <v>1</v>
       </c>
       <c r="L423" t="s">
+        <v>658</v>
+      </c>
+      <c r="M423" t="s">
+        <v>611</v>
+      </c>
+      <c r="N423" t="s">
         <v>659</v>
-      </c>
-      <c r="M423" t="s">
-        <v>612</v>
-      </c>
-      <c r="N423" t="s">
-        <v>660</v>
       </c>
       <c r="O423" t="s">
         <v>83</v>
@@ -39832,7 +39829,7 @@
         <v>79</v>
       </c>
       <c r="Q423" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="S423">
         <v>4</v>
@@ -39858,7 +39855,7 @@
         <v>443</v>
       </c>
       <c r="B424" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C424">
         <v>60</v>
@@ -39870,28 +39867,28 @@
         <v>314</v>
       </c>
       <c r="F424" t="s">
+        <v>645</v>
+      </c>
+      <c r="G424" t="s">
         <v>646</v>
-      </c>
-      <c r="G424" t="s">
-        <v>647</v>
       </c>
       <c r="H424">
         <v>38888</v>
       </c>
       <c r="J424" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K424">
         <v>2</v>
       </c>
       <c r="L424" t="s">
+        <v>661</v>
+      </c>
+      <c r="M424" t="s">
         <v>662</v>
       </c>
-      <c r="M424" t="s">
+      <c r="N424" t="s">
         <v>663</v>
-      </c>
-      <c r="N424" t="s">
-        <v>664</v>
       </c>
       <c r="O424" t="s">
         <v>93</v>
@@ -39900,7 +39897,7 @@
         <v>79</v>
       </c>
       <c r="Q424" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S424">
         <v>4</v>
@@ -39926,7 +39923,7 @@
         <v>444</v>
       </c>
       <c r="B425" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C425">
         <v>60</v>
@@ -39938,10 +39935,10 @@
         <v>314</v>
       </c>
       <c r="F425" t="s">
+        <v>645</v>
+      </c>
+      <c r="G425" t="s">
         <v>646</v>
-      </c>
-      <c r="G425" t="s">
-        <v>647</v>
       </c>
       <c r="H425">
         <v>38888</v>
@@ -39953,13 +39950,13 @@
         <v>1</v>
       </c>
       <c r="L425" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M425" t="s">
+        <v>665</v>
+      </c>
+      <c r="N425" t="s">
         <v>666</v>
-      </c>
-      <c r="N425" t="s">
-        <v>667</v>
       </c>
       <c r="O425" t="s">
         <v>83</v>
@@ -39968,7 +39965,7 @@
         <v>79</v>
       </c>
       <c r="Q425" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="S425">
         <v>4</v>
@@ -39994,7 +39991,7 @@
         <v>445</v>
       </c>
       <c r="B426" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C426">
         <v>60</v>
@@ -40006,10 +40003,10 @@
         <v>314</v>
       </c>
       <c r="F426" t="s">
+        <v>645</v>
+      </c>
+      <c r="G426" t="s">
         <v>646</v>
-      </c>
-      <c r="G426" t="s">
-        <v>647</v>
       </c>
       <c r="H426">
         <v>38888</v>
@@ -40021,19 +40018,19 @@
         <v>1</v>
       </c>
       <c r="L426" t="s">
+        <v>668</v>
+      </c>
+      <c r="M426" t="s">
         <v>669</v>
       </c>
-      <c r="M426" t="s">
+      <c r="N426" t="s">
         <v>670</v>
       </c>
-      <c r="N426" t="s">
-        <v>671</v>
-      </c>
       <c r="O426" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P426" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="Q426">
         <v>8.1999999999999993</v>
@@ -40062,7 +40059,7 @@
         <v>446</v>
       </c>
       <c r="B427" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C427">
         <v>60</v>
@@ -40074,10 +40071,10 @@
         <v>314</v>
       </c>
       <c r="F427" t="s">
+        <v>645</v>
+      </c>
+      <c r="G427" t="s">
         <v>646</v>
-      </c>
-      <c r="G427" t="s">
-        <v>647</v>
       </c>
       <c r="H427">
         <v>38888</v>
@@ -40089,13 +40086,13 @@
         <v>1</v>
       </c>
       <c r="L427" t="s">
+        <v>671</v>
+      </c>
+      <c r="M427" t="s">
         <v>672</v>
       </c>
-      <c r="M427" t="s">
+      <c r="N427" t="s">
         <v>673</v>
-      </c>
-      <c r="N427" t="s">
-        <v>674</v>
       </c>
       <c r="O427" t="s">
         <v>83</v>
@@ -40104,7 +40101,7 @@
         <v>79</v>
       </c>
       <c r="Q427" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="S427">
         <v>4</v>
@@ -40130,7 +40127,7 @@
         <v>447</v>
       </c>
       <c r="B428" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C428">
         <v>60</v>
@@ -40142,28 +40139,28 @@
         <v>314</v>
       </c>
       <c r="F428" t="s">
+        <v>645</v>
+      </c>
+      <c r="G428" t="s">
         <v>646</v>
-      </c>
-      <c r="G428" t="s">
-        <v>647</v>
       </c>
       <c r="H428">
         <v>38888</v>
       </c>
       <c r="J428" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K428">
         <v>1</v>
       </c>
       <c r="L428" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M428" t="s">
         <v>78</v>
       </c>
       <c r="N428" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O428" t="s">
         <v>78</v>
@@ -40172,7 +40169,7 @@
         <v>78</v>
       </c>
       <c r="Q428" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="S428">
         <v>4</v>
@@ -40198,7 +40195,7 @@
         <v>448</v>
       </c>
       <c r="B429" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C429">
         <v>60</v>
@@ -40210,28 +40207,28 @@
         <v>314</v>
       </c>
       <c r="F429" t="s">
+        <v>645</v>
+      </c>
+      <c r="G429" t="s">
         <v>646</v>
-      </c>
-      <c r="G429" t="s">
-        <v>647</v>
       </c>
       <c r="H429">
         <v>38888</v>
       </c>
       <c r="J429" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K429">
         <v>2</v>
       </c>
       <c r="L429" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M429" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N429" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O429" t="s">
         <v>83</v>
@@ -40240,7 +40237,7 @@
         <v>79</v>
       </c>
       <c r="Q429" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="S429">
         <v>4</v>
@@ -40266,7 +40263,7 @@
         <v>449</v>
       </c>
       <c r="B430" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C430">
         <v>60</v>
@@ -40278,10 +40275,10 @@
         <v>314</v>
       </c>
       <c r="F430" t="s">
+        <v>645</v>
+      </c>
+      <c r="G430" t="s">
         <v>646</v>
-      </c>
-      <c r="G430" t="s">
-        <v>647</v>
       </c>
       <c r="H430">
         <v>38888</v>
@@ -40334,7 +40331,7 @@
         <v>450</v>
       </c>
       <c r="B431" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C431">
         <v>60</v>
@@ -40346,28 +40343,28 @@
         <v>314</v>
       </c>
       <c r="F431" t="s">
+        <v>645</v>
+      </c>
+      <c r="G431" t="s">
         <v>646</v>
-      </c>
-      <c r="G431" t="s">
-        <v>647</v>
       </c>
       <c r="H431">
         <v>38888</v>
       </c>
       <c r="J431" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K431">
         <v>1</v>
       </c>
       <c r="L431" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M431" t="s">
         <v>138</v>
       </c>
       <c r="N431" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O431" t="s">
         <v>78</v>
@@ -40376,7 +40373,7 @@
         <v>78</v>
       </c>
       <c r="Q431" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S431">
         <v>4</v>
@@ -40402,7 +40399,7 @@
         <v>451</v>
       </c>
       <c r="B432" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C432">
         <v>60</v>
@@ -40414,10 +40411,10 @@
         <v>314</v>
       </c>
       <c r="F432" t="s">
+        <v>645</v>
+      </c>
+      <c r="G432" t="s">
         <v>646</v>
-      </c>
-      <c r="G432" t="s">
-        <v>647</v>
       </c>
       <c r="H432">
         <v>38888</v>
@@ -40435,7 +40432,7 @@
         <v>173</v>
       </c>
       <c r="N432" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O432" t="s">
         <v>83</v>
@@ -40470,7 +40467,7 @@
         <v>452</v>
       </c>
       <c r="B433" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C433">
         <v>60</v>
@@ -40482,10 +40479,10 @@
         <v>314</v>
       </c>
       <c r="F433" t="s">
+        <v>645</v>
+      </c>
+      <c r="G433" t="s">
         <v>646</v>
-      </c>
-      <c r="G433" t="s">
-        <v>647</v>
       </c>
       <c r="H433">
         <v>38888</v>
@@ -40497,13 +40494,13 @@
         <v>1</v>
       </c>
       <c r="L433" t="s">
+        <v>683</v>
+      </c>
+      <c r="M433" t="s">
         <v>684</v>
       </c>
-      <c r="M433" t="s">
+      <c r="N433" t="s">
         <v>685</v>
-      </c>
-      <c r="N433" t="s">
-        <v>686</v>
       </c>
       <c r="O433" t="s">
         <v>83</v>
@@ -40538,7 +40535,7 @@
         <v>453</v>
       </c>
       <c r="B434" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C434">
         <v>60</v>
@@ -40550,25 +40547,25 @@
         <v>314</v>
       </c>
       <c r="F434" t="s">
+        <v>645</v>
+      </c>
+      <c r="G434" t="s">
         <v>646</v>
-      </c>
-      <c r="G434" t="s">
-        <v>647</v>
       </c>
       <c r="H434">
         <v>38888</v>
       </c>
       <c r="J434" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K434">
         <v>1</v>
       </c>
       <c r="L434" t="s">
+        <v>686</v>
+      </c>
+      <c r="M434" t="s">
         <v>687</v>
-      </c>
-      <c r="M434" t="s">
-        <v>688</v>
       </c>
       <c r="N434" t="s">
         <v>134</v>
@@ -40580,7 +40577,7 @@
         <v>93</v>
       </c>
       <c r="Q434" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="S434">
         <v>4</v>
@@ -40606,7 +40603,7 @@
         <v>454</v>
       </c>
       <c r="B435" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C435">
         <v>62</v>
@@ -40633,7 +40630,7 @@
         <v>2</v>
       </c>
       <c r="L435" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M435" t="s">
         <v>136</v>
@@ -40686,7 +40683,7 @@
         <v>455</v>
       </c>
       <c r="B436" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C436">
         <v>62</v>
@@ -40716,10 +40713,10 @@
         <v>80</v>
       </c>
       <c r="M436" t="s">
+        <v>691</v>
+      </c>
+      <c r="N436" t="s">
         <v>692</v>
-      </c>
-      <c r="N436" t="s">
-        <v>693</v>
       </c>
       <c r="O436" t="s">
         <v>83</v>
@@ -40766,7 +40763,7 @@
         <v>456</v>
       </c>
       <c r="B437" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C437">
         <v>62</v>
@@ -40846,7 +40843,7 @@
         <v>457</v>
       </c>
       <c r="B438" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C438">
         <v>62</v>
@@ -40873,7 +40870,7 @@
         <v>2</v>
       </c>
       <c r="L438" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M438" t="s">
         <v>456</v>
@@ -40926,7 +40923,7 @@
         <v>458</v>
       </c>
       <c r="B439" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C439">
         <v>62</v>
@@ -40953,13 +40950,13 @@
         <v>2</v>
       </c>
       <c r="L439" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M439" t="s">
+        <v>694</v>
+      </c>
+      <c r="N439" t="s">
         <v>695</v>
-      </c>
-      <c r="N439" t="s">
-        <v>696</v>
       </c>
       <c r="O439" t="s">
         <v>83</v>
@@ -41006,7 +41003,7 @@
         <v>459</v>
       </c>
       <c r="B440" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C440">
         <v>62</v>
@@ -41036,10 +41033,10 @@
         <v>80</v>
       </c>
       <c r="M440" t="s">
+        <v>691</v>
+      </c>
+      <c r="N440" t="s">
         <v>692</v>
-      </c>
-      <c r="N440" t="s">
-        <v>693</v>
       </c>
       <c r="O440" t="s">
         <v>83</v>
@@ -41086,7 +41083,7 @@
         <v>460</v>
       </c>
       <c r="B441" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C441">
         <v>62</v>
@@ -41116,7 +41113,7 @@
         <v>133</v>
       </c>
       <c r="M441" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N441" t="s">
         <v>134</v>
@@ -41166,7 +41163,7 @@
         <v>461</v>
       </c>
       <c r="B442" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C442">
         <v>63</v>
@@ -41190,13 +41187,13 @@
         <v>2</v>
       </c>
       <c r="L442" t="s">
+        <v>697</v>
+      </c>
+      <c r="M442" t="s">
         <v>698</v>
       </c>
-      <c r="M442" t="s">
+      <c r="N442" t="s">
         <v>699</v>
-      </c>
-      <c r="N442" t="s">
-        <v>700</v>
       </c>
       <c r="O442" t="s">
         <v>83</v>
@@ -41231,7 +41228,7 @@
         <v>462</v>
       </c>
       <c r="B443" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C443">
         <v>63</v>
@@ -41255,13 +41252,13 @@
         <v>2</v>
       </c>
       <c r="L443" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M443" t="s">
+        <v>698</v>
+      </c>
+      <c r="N443" t="s">
         <v>699</v>
-      </c>
-      <c r="N443" t="s">
-        <v>700</v>
       </c>
       <c r="O443" t="s">
         <v>83</v>
@@ -41296,7 +41293,7 @@
         <v>463</v>
       </c>
       <c r="B444" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C444">
         <v>63</v>
@@ -41320,13 +41317,13 @@
         <v>2</v>
       </c>
       <c r="L444" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M444" t="s">
+        <v>698</v>
+      </c>
+      <c r="N444" t="s">
         <v>699</v>
-      </c>
-      <c r="N444" t="s">
-        <v>700</v>
       </c>
       <c r="O444" t="s">
         <v>83</v>
@@ -41361,7 +41358,7 @@
         <v>464</v>
       </c>
       <c r="B445" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C445">
         <v>63</v>
@@ -41385,13 +41382,13 @@
         <v>2</v>
       </c>
       <c r="L445" t="s">
+        <v>702</v>
+      </c>
+      <c r="M445" t="s">
         <v>703</v>
       </c>
-      <c r="M445" t="s">
+      <c r="N445" t="s">
         <v>704</v>
-      </c>
-      <c r="N445" t="s">
-        <v>705</v>
       </c>
       <c r="O445" t="s">
         <v>83</v>
@@ -41400,7 +41397,7 @@
         <v>79</v>
       </c>
       <c r="Q445" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S445">
         <v>4</v>
@@ -41426,7 +41423,7 @@
         <v>465</v>
       </c>
       <c r="B446" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C446">
         <v>63</v>
@@ -41450,13 +41447,13 @@
         <v>2</v>
       </c>
       <c r="L446" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M446" t="s">
+        <v>703</v>
+      </c>
+      <c r="N446" t="s">
         <v>704</v>
-      </c>
-      <c r="N446" t="s">
-        <v>705</v>
       </c>
       <c r="O446" t="s">
         <v>83</v>
@@ -41465,7 +41462,7 @@
         <v>79</v>
       </c>
       <c r="Q446" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S446">
         <v>4</v>
@@ -41491,7 +41488,7 @@
         <v>466</v>
       </c>
       <c r="B447" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C447">
         <v>63</v>
@@ -41515,13 +41512,13 @@
         <v>2</v>
       </c>
       <c r="L447" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M447" t="s">
+        <v>703</v>
+      </c>
+      <c r="N447" t="s">
         <v>704</v>
-      </c>
-      <c r="N447" t="s">
-        <v>705</v>
       </c>
       <c r="O447" t="s">
         <v>83</v>
@@ -41530,7 +41527,7 @@
         <v>79</v>
       </c>
       <c r="Q447" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S447">
         <v>4</v>
@@ -41556,7 +41553,7 @@
         <v>467</v>
       </c>
       <c r="B448" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C448">
         <v>65</v>
@@ -41583,7 +41580,7 @@
         <v>125</v>
       </c>
       <c r="M448" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N448" t="s">
         <v>127</v>
@@ -41645,7 +41642,7 @@
         <v>468</v>
       </c>
       <c r="B449" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C449">
         <v>65</v>
@@ -41663,7 +41660,7 @@
         <v>39610</v>
       </c>
       <c r="J449" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K449">
         <v>2</v>
@@ -41684,7 +41681,7 @@
         <v>79</v>
       </c>
       <c r="Q449" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="R449" t="s">
         <v>64</v>
@@ -41737,7 +41734,7 @@
         <v>469</v>
       </c>
       <c r="B450" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C450">
         <v>65</v>
@@ -41829,7 +41826,7 @@
         <v>470</v>
       </c>
       <c r="B451" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C451">
         <v>65</v>
@@ -41921,7 +41918,7 @@
         <v>471</v>
       </c>
       <c r="B452" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C452">
         <v>65</v>
@@ -41945,13 +41942,13 @@
         <v>1</v>
       </c>
       <c r="L452" t="s">
+        <v>712</v>
+      </c>
+      <c r="M452" t="s">
         <v>713</v>
       </c>
-      <c r="M452" t="s">
+      <c r="N452" t="s">
         <v>714</v>
-      </c>
-      <c r="N452" t="s">
-        <v>715</v>
       </c>
       <c r="O452" t="s">
         <v>83</v>
@@ -42013,7 +42010,7 @@
         <v>472</v>
       </c>
       <c r="B453" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C453">
         <v>65</v>
@@ -42037,7 +42034,7 @@
         <v>1</v>
       </c>
       <c r="L453" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M453" t="s">
         <v>456</v>
@@ -42105,7 +42102,7 @@
         <v>473</v>
       </c>
       <c r="B454" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C454">
         <v>65</v>
@@ -42129,7 +42126,7 @@
         <v>1</v>
       </c>
       <c r="L454" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M454" t="s">
         <v>136</v>
@@ -42197,7 +42194,7 @@
         <v>474</v>
       </c>
       <c r="B455" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C455">
         <v>65</v>
@@ -42289,7 +42286,7 @@
         <v>475</v>
       </c>
       <c r="B456" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C456">
         <v>65</v>
@@ -42316,7 +42313,7 @@
         <v>125</v>
       </c>
       <c r="M456" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N456" t="s">
         <v>127</v>
@@ -42381,7 +42378,7 @@
         <v>476</v>
       </c>
       <c r="B457" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C457">
         <v>65</v>
@@ -42408,10 +42405,10 @@
         <v>120</v>
       </c>
       <c r="M457" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N457" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O457" t="s">
         <v>78</v>
@@ -42473,7 +42470,7 @@
         <v>477</v>
       </c>
       <c r="B458" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C458">
         <v>65</v>
@@ -42497,13 +42494,13 @@
         <v>1</v>
       </c>
       <c r="L458" t="s">
+        <v>717</v>
+      </c>
+      <c r="M458" t="s">
         <v>718</v>
       </c>
-      <c r="M458" t="s">
+      <c r="N458" t="s">
         <v>719</v>
-      </c>
-      <c r="N458" t="s">
-        <v>720</v>
       </c>
       <c r="O458" t="s">
         <v>83</v>
@@ -42512,7 +42509,7 @@
         <v>79</v>
       </c>
       <c r="Q458" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="R458" t="s">
         <v>64</v>
@@ -42565,7 +42562,7 @@
         <v>478</v>
       </c>
       <c r="B459" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C459">
         <v>65</v>
@@ -42657,7 +42654,7 @@
         <v>479</v>
       </c>
       <c r="B460" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C460">
         <v>65</v>
@@ -42687,10 +42684,10 @@
         <v>155</v>
       </c>
       <c r="N460" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O460" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="P460" t="s">
         <v>79</v>
@@ -42749,7 +42746,7 @@
         <v>480</v>
       </c>
       <c r="B461" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C461">
         <v>65</v>
@@ -42773,7 +42770,7 @@
         <v>1</v>
       </c>
       <c r="L461" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M461" t="s">
         <v>456</v>
@@ -42841,7 +42838,7 @@
         <v>481</v>
       </c>
       <c r="B462" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C462">
         <v>65</v>
@@ -42933,7 +42930,7 @@
         <v>482</v>
       </c>
       <c r="B463" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C463">
         <v>65</v>
@@ -42957,10 +42954,10 @@
         <v>1</v>
       </c>
       <c r="L463" t="s">
+        <v>723</v>
+      </c>
+      <c r="M463" t="s">
         <v>724</v>
-      </c>
-      <c r="M463" t="s">
-        <v>725</v>
       </c>
       <c r="N463" t="s">
         <v>456</v>
@@ -43025,7 +43022,7 @@
         <v>483</v>
       </c>
       <c r="B464" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C464">
         <v>65</v>
@@ -43043,19 +43040,19 @@
         <v>39610</v>
       </c>
       <c r="J464" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K464">
         <v>2</v>
       </c>
       <c r="L464" t="s">
+        <v>725</v>
+      </c>
+      <c r="M464" t="s">
         <v>726</v>
       </c>
-      <c r="M464" t="s">
+      <c r="N464" t="s">
         <v>727</v>
-      </c>
-      <c r="N464" t="s">
-        <v>728</v>
       </c>
       <c r="O464" t="s">
         <v>83</v>
@@ -43064,7 +43061,7 @@
         <v>79</v>
       </c>
       <c r="Q464" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R464" t="s">
         <v>64</v>
@@ -43117,7 +43114,7 @@
         <v>484</v>
       </c>
       <c r="B465" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C465">
         <v>65</v>
@@ -43141,7 +43138,7 @@
         <v>1</v>
       </c>
       <c r="L465" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M465" t="s">
         <v>456</v>
@@ -43209,7 +43206,7 @@
         <v>485</v>
       </c>
       <c r="B466" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C466">
         <v>66</v>
@@ -43236,7 +43233,7 @@
         <v>125</v>
       </c>
       <c r="M466" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N466" t="s">
         <v>127</v>
@@ -43301,7 +43298,7 @@
         <v>486</v>
       </c>
       <c r="B467" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C467">
         <v>66</v>
@@ -43328,7 +43325,7 @@
         <v>125</v>
       </c>
       <c r="M467" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N467" t="s">
         <v>127</v>
@@ -43393,7 +43390,7 @@
         <v>487</v>
       </c>
       <c r="B468" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C468">
         <v>66</v>
@@ -43420,7 +43417,7 @@
         <v>125</v>
       </c>
       <c r="M468" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N468" t="s">
         <v>127</v>
@@ -43485,7 +43482,7 @@
         <v>488</v>
       </c>
       <c r="B469" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C469">
         <v>66</v>
@@ -43503,16 +43500,16 @@
         <v>39612</v>
       </c>
       <c r="J469" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K469">
         <v>2</v>
       </c>
       <c r="L469" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M469" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N469" t="s">
         <v>127</v>
@@ -43524,7 +43521,7 @@
         <v>78</v>
       </c>
       <c r="Q469" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R469" t="s">
         <v>64</v>
@@ -43577,7 +43574,7 @@
         <v>489</v>
       </c>
       <c r="B470" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C470">
         <v>66</v>
@@ -43595,16 +43592,16 @@
         <v>39612</v>
       </c>
       <c r="J470" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K470">
         <v>2</v>
       </c>
       <c r="L470" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M470" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N470" t="s">
         <v>127</v>
@@ -43616,7 +43613,7 @@
         <v>78</v>
       </c>
       <c r="Q470" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="R470" t="s">
         <v>64</v>
@@ -43669,7 +43666,7 @@
         <v>490</v>
       </c>
       <c r="B471" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C471">
         <v>66</v>
@@ -43687,16 +43684,16 @@
         <v>39612</v>
       </c>
       <c r="J471" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K471">
         <v>2</v>
       </c>
       <c r="L471" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M471" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N471" t="s">
         <v>127</v>
@@ -43708,7 +43705,7 @@
         <v>78</v>
       </c>
       <c r="Q471" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R471" t="s">
         <v>64</v>
@@ -43761,7 +43758,7 @@
         <v>491</v>
       </c>
       <c r="B472" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C472">
         <v>66</v>
@@ -43779,16 +43776,16 @@
         <v>39612</v>
       </c>
       <c r="J472" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K472">
         <v>2</v>
       </c>
       <c r="L472" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M472" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N472" t="s">
         <v>127</v>
@@ -43800,7 +43797,7 @@
         <v>78</v>
       </c>
       <c r="Q472" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R472" t="s">
         <v>64</v>
@@ -43853,7 +43850,7 @@
         <v>492</v>
       </c>
       <c r="B473" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C473">
         <v>66</v>
@@ -43871,16 +43868,16 @@
         <v>39612</v>
       </c>
       <c r="J473" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K473">
         <v>2</v>
       </c>
       <c r="L473" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M473" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N473" t="s">
         <v>127</v>
@@ -43892,7 +43889,7 @@
         <v>78</v>
       </c>
       <c r="Q473" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="R473" t="s">
         <v>64</v>
@@ -43945,7 +43942,7 @@
         <v>493</v>
       </c>
       <c r="B474" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C474">
         <v>66</v>
@@ -43963,16 +43960,16 @@
         <v>39612</v>
       </c>
       <c r="J474" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K474">
         <v>2</v>
       </c>
       <c r="L474" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M474" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N474" t="s">
         <v>127</v>
@@ -43984,7 +43981,7 @@
         <v>78</v>
       </c>
       <c r="Q474" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R474" t="s">
         <v>64</v>
@@ -44037,7 +44034,7 @@
         <v>494</v>
       </c>
       <c r="B475" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C475">
         <v>66</v>
@@ -44061,10 +44058,10 @@
         <v>1</v>
       </c>
       <c r="L475" t="s">
+        <v>737</v>
+      </c>
+      <c r="M475" t="s">
         <v>738</v>
-      </c>
-      <c r="M475" t="s">
-        <v>739</v>
       </c>
       <c r="N475" t="s">
         <v>127</v>
@@ -44076,7 +44073,7 @@
         <v>78</v>
       </c>
       <c r="Q475" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R475" t="s">
         <v>64</v>
@@ -44129,7 +44126,7 @@
         <v>495</v>
       </c>
       <c r="B476" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C476">
         <v>66</v>
@@ -44153,13 +44150,13 @@
         <v>1</v>
       </c>
       <c r="L476" t="s">
+        <v>740</v>
+      </c>
+      <c r="M476" t="s">
         <v>741</v>
       </c>
-      <c r="M476" t="s">
+      <c r="N476" t="s">
         <v>742</v>
-      </c>
-      <c r="N476" t="s">
-        <v>743</v>
       </c>
       <c r="O476" t="s">
         <v>83</v>
@@ -44168,7 +44165,7 @@
         <v>79</v>
       </c>
       <c r="Q476" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="R476" t="s">
         <v>64</v>
@@ -44221,7 +44218,7 @@
         <v>496</v>
       </c>
       <c r="B477" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C477">
         <v>66</v>
@@ -44245,13 +44242,13 @@
         <v>1</v>
       </c>
       <c r="L477" t="s">
+        <v>744</v>
+      </c>
+      <c r="M477" t="s">
         <v>745</v>
       </c>
-      <c r="M477" t="s">
+      <c r="N477" t="s">
         <v>746</v>
-      </c>
-      <c r="N477" t="s">
-        <v>747</v>
       </c>
       <c r="O477" t="s">
         <v>83</v>
@@ -44260,7 +44257,7 @@
         <v>79</v>
       </c>
       <c r="Q477" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R477" t="s">
         <v>64</v>
@@ -44313,7 +44310,7 @@
         <v>497</v>
       </c>
       <c r="B478" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C478">
         <v>66</v>
@@ -44331,28 +44328,28 @@
         <v>39612</v>
       </c>
       <c r="J478" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K478">
         <v>2</v>
       </c>
       <c r="L478" t="s">
+        <v>748</v>
+      </c>
+      <c r="M478" t="s">
         <v>749</v>
       </c>
-      <c r="M478" t="s">
+      <c r="N478" t="s">
         <v>750</v>
       </c>
-      <c r="N478" t="s">
+      <c r="O478" t="s">
         <v>751</v>
-      </c>
-      <c r="O478" t="s">
-        <v>752</v>
       </c>
       <c r="P478" t="s">
         <v>78</v>
       </c>
       <c r="Q478" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="R478" t="s">
         <v>64</v>
@@ -44405,7 +44402,7 @@
         <v>498</v>
       </c>
       <c r="B479" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C479">
         <v>67</v>
@@ -44423,7 +44420,7 @@
         <v>40003</v>
       </c>
       <c r="J479" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K479">
         <v>1</v>
@@ -44432,7 +44429,7 @@
         <v>125</v>
       </c>
       <c r="M479" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N479" t="s">
         <v>127</v>
@@ -44485,7 +44482,7 @@
         <v>499</v>
       </c>
       <c r="B480" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C480">
         <v>67</v>
@@ -44503,19 +44500,19 @@
         <v>40003</v>
       </c>
       <c r="J480" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K480">
         <v>2</v>
       </c>
       <c r="L480" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M480" t="s">
+        <v>756</v>
+      </c>
+      <c r="N480" t="s">
         <v>757</v>
-      </c>
-      <c r="N480" t="s">
-        <v>758</v>
       </c>
       <c r="O480" t="s">
         <v>78</v>
@@ -44524,7 +44521,7 @@
         <v>78</v>
       </c>
       <c r="Q480" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R480" t="s">
         <v>64</v>
@@ -44565,7 +44562,7 @@
         <v>500</v>
       </c>
       <c r="B481" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C481">
         <v>67</v>
@@ -44583,7 +44580,7 @@
         <v>40003</v>
       </c>
       <c r="J481" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K481">
         <v>2</v>
@@ -44592,7 +44589,7 @@
         <v>125</v>
       </c>
       <c r="M481" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N481" t="s">
         <v>127</v>
@@ -44645,7 +44642,7 @@
         <v>501</v>
       </c>
       <c r="B482" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C482">
         <v>67</v>
@@ -44663,19 +44660,19 @@
         <v>40003</v>
       </c>
       <c r="J482" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K482">
         <v>2</v>
       </c>
       <c r="L482" t="s">
+        <v>759</v>
+      </c>
+      <c r="M482" t="s">
         <v>760</v>
       </c>
-      <c r="M482" t="s">
+      <c r="N482" t="s">
         <v>761</v>
-      </c>
-      <c r="N482" t="s">
-        <v>762</v>
       </c>
       <c r="O482" t="s">
         <v>78</v>
@@ -44684,7 +44681,7 @@
         <v>78</v>
       </c>
       <c r="Q482" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="R482" t="s">
         <v>64</v>
@@ -44725,7 +44722,7 @@
         <v>502</v>
       </c>
       <c r="B483" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C483">
         <v>67</v>
@@ -44743,19 +44740,19 @@
         <v>40003</v>
       </c>
       <c r="J483" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K483">
         <v>2</v>
       </c>
       <c r="L483" t="s">
+        <v>763</v>
+      </c>
+      <c r="M483" t="s">
         <v>764</v>
       </c>
-      <c r="M483" t="s">
+      <c r="N483" t="s">
         <v>765</v>
-      </c>
-      <c r="N483" t="s">
-        <v>766</v>
       </c>
       <c r="O483" t="s">
         <v>83</v>
@@ -44764,7 +44761,7 @@
         <v>79</v>
       </c>
       <c r="Q483" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R483" t="s">
         <v>64</v>
@@ -44805,7 +44802,7 @@
         <v>503</v>
       </c>
       <c r="B484" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C484">
         <v>67</v>
@@ -44823,19 +44820,19 @@
         <v>40003</v>
       </c>
       <c r="J484" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K484">
         <v>2</v>
       </c>
       <c r="L484" t="s">
+        <v>763</v>
+      </c>
+      <c r="M484" t="s">
         <v>764</v>
       </c>
-      <c r="M484" t="s">
+      <c r="N484" t="s">
         <v>765</v>
-      </c>
-      <c r="N484" t="s">
-        <v>766</v>
       </c>
       <c r="O484" t="s">
         <v>83</v>
@@ -44844,7 +44841,7 @@
         <v>79</v>
       </c>
       <c r="Q484" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R484" t="s">
         <v>64</v>
@@ -44885,7 +44882,7 @@
         <v>504</v>
       </c>
       <c r="B485" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C485">
         <v>67</v>
@@ -44903,19 +44900,19 @@
         <v>40003</v>
       </c>
       <c r="J485" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K485">
         <v>1</v>
       </c>
       <c r="L485" t="s">
+        <v>768</v>
+      </c>
+      <c r="M485" t="s">
         <v>769</v>
       </c>
-      <c r="M485" t="s">
+      <c r="N485" t="s">
         <v>770</v>
-      </c>
-      <c r="N485" t="s">
-        <v>771</v>
       </c>
       <c r="O485" t="s">
         <v>83</v>
@@ -44965,7 +44962,7 @@
         <v>505</v>
       </c>
       <c r="B486" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C486">
         <v>67</v>
@@ -44989,7 +44986,7 @@
         <v>1</v>
       </c>
       <c r="L486" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M486" t="s">
         <v>279</v>
@@ -45045,7 +45042,7 @@
         <v>506</v>
       </c>
       <c r="B487" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C487">
         <v>67</v>
@@ -45063,13 +45060,13 @@
         <v>40003</v>
       </c>
       <c r="J487" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K487">
         <v>1</v>
       </c>
       <c r="L487" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M487" t="s">
         <v>456</v>
@@ -45125,7 +45122,7 @@
         <v>507</v>
       </c>
       <c r="B488" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C488">
         <v>67</v>
@@ -45143,13 +45140,13 @@
         <v>40003</v>
       </c>
       <c r="J488" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K488">
         <v>1</v>
       </c>
       <c r="L488" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M488" t="s">
         <v>456</v>
@@ -45205,7 +45202,7 @@
         <v>508</v>
       </c>
       <c r="B489" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C489">
         <v>67</v>
@@ -45223,7 +45220,7 @@
         <v>40003</v>
       </c>
       <c r="J489" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K489">
         <v>1</v>
@@ -45285,7 +45282,7 @@
         <v>509</v>
       </c>
       <c r="B490" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C490">
         <v>68</v>
@@ -45312,7 +45309,7 @@
         <v>1</v>
       </c>
       <c r="L490" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M490" t="s">
         <v>225</v>
@@ -45368,7 +45365,7 @@
         <v>510</v>
       </c>
       <c r="B491" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C491">
         <v>68</v>
@@ -45395,13 +45392,13 @@
         <v>1</v>
       </c>
       <c r="L491" t="s">
+        <v>775</v>
+      </c>
+      <c r="M491" t="s">
         <v>776</v>
       </c>
-      <c r="M491" t="s">
+      <c r="N491" t="s">
         <v>777</v>
-      </c>
-      <c r="N491" t="s">
-        <v>778</v>
       </c>
       <c r="O491" t="s">
         <v>83</v>
@@ -45451,7 +45448,7 @@
         <v>511</v>
       </c>
       <c r="B492" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C492">
         <v>68</v>
@@ -45478,13 +45475,13 @@
         <v>2</v>
       </c>
       <c r="L492" t="s">
+        <v>775</v>
+      </c>
+      <c r="M492" t="s">
         <v>776</v>
       </c>
-      <c r="M492" t="s">
+      <c r="N492" t="s">
         <v>777</v>
-      </c>
-      <c r="N492" t="s">
-        <v>778</v>
       </c>
       <c r="O492" t="s">
         <v>83</v>
@@ -45534,7 +45531,7 @@
         <v>512</v>
       </c>
       <c r="B493" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C493">
         <v>68</v>
@@ -45561,13 +45558,13 @@
         <v>1</v>
       </c>
       <c r="L493" t="s">
+        <v>775</v>
+      </c>
+      <c r="M493" t="s">
         <v>776</v>
       </c>
-      <c r="M493" t="s">
+      <c r="N493" t="s">
         <v>777</v>
-      </c>
-      <c r="N493" t="s">
-        <v>778</v>
       </c>
       <c r="O493" t="s">
         <v>83</v>
@@ -45617,7 +45614,7 @@
         <v>513</v>
       </c>
       <c r="B494" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C494">
         <v>68</v>
@@ -45650,7 +45647,7 @@
         <v>173</v>
       </c>
       <c r="N494" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O494" t="s">
         <v>83</v>
@@ -45700,7 +45697,7 @@
         <v>514</v>
       </c>
       <c r="B495" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C495">
         <v>69</v>
@@ -45715,7 +45712,7 @@
         <v>57</v>
       </c>
       <c r="G495" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H495">
         <v>41444</v>
@@ -45730,7 +45727,7 @@
         <v>125</v>
       </c>
       <c r="M495" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N495" t="s">
         <v>127</v>
@@ -45771,7 +45768,7 @@
         <v>515</v>
       </c>
       <c r="B496" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C496">
         <v>69</v>
@@ -45786,7 +45783,7 @@
         <v>57</v>
       </c>
       <c r="G496" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H496">
         <v>41444</v>
@@ -45801,7 +45798,7 @@
         <v>125</v>
       </c>
       <c r="M496" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N496" t="s">
         <v>127</v>
@@ -45842,7 +45839,7 @@
         <v>516</v>
       </c>
       <c r="B497" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C497">
         <v>69</v>
@@ -45857,25 +45854,25 @@
         <v>57</v>
       </c>
       <c r="G497" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H497">
         <v>41444</v>
       </c>
       <c r="J497" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K497">
         <v>2</v>
       </c>
       <c r="L497" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M497" t="s">
+        <v>756</v>
+      </c>
+      <c r="N497" t="s">
         <v>757</v>
-      </c>
-      <c r="N497" t="s">
-        <v>758</v>
       </c>
       <c r="O497" t="s">
         <v>78</v>
@@ -45884,7 +45881,7 @@
         <v>78</v>
       </c>
       <c r="Q497" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R497" t="s">
         <v>64</v>
@@ -45913,7 +45910,7 @@
         <v>517</v>
       </c>
       <c r="B498" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C498">
         <v>69</v>
@@ -45928,25 +45925,25 @@
         <v>57</v>
       </c>
       <c r="G498" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H498">
         <v>41444</v>
       </c>
       <c r="J498" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K498">
         <v>2</v>
       </c>
       <c r="L498" t="s">
+        <v>759</v>
+      </c>
+      <c r="M498" t="s">
         <v>760</v>
       </c>
-      <c r="M498" t="s">
+      <c r="N498" t="s">
         <v>761</v>
-      </c>
-      <c r="N498" t="s">
-        <v>762</v>
       </c>
       <c r="O498" t="s">
         <v>78</v>
@@ -45955,7 +45952,7 @@
         <v>78</v>
       </c>
       <c r="Q498" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="R498" t="s">
         <v>64</v>
@@ -45984,7 +45981,7 @@
         <v>518</v>
       </c>
       <c r="B499" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C499">
         <v>69</v>
@@ -45999,25 +45996,25 @@
         <v>57</v>
       </c>
       <c r="G499" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H499">
         <v>41444</v>
       </c>
       <c r="J499" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K499">
         <v>2</v>
       </c>
       <c r="L499" t="s">
+        <v>783</v>
+      </c>
+      <c r="M499" t="s">
         <v>784</v>
       </c>
-      <c r="M499" t="s">
+      <c r="N499" t="s">
         <v>785</v>
-      </c>
-      <c r="N499" t="s">
-        <v>786</v>
       </c>
       <c r="O499" t="s">
         <v>69</v>
@@ -46026,7 +46023,7 @@
         <v>69</v>
       </c>
       <c r="Q499" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R499" t="s">
         <v>64</v>
@@ -46055,7 +46052,7 @@
         <v>519</v>
       </c>
       <c r="B500" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C500">
         <v>69</v>
@@ -46070,25 +46067,25 @@
         <v>57</v>
       </c>
       <c r="G500" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H500">
         <v>41444</v>
       </c>
       <c r="J500" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K500">
         <v>2</v>
       </c>
       <c r="L500" t="s">
+        <v>783</v>
+      </c>
+      <c r="M500" t="s">
         <v>784</v>
       </c>
-      <c r="M500" t="s">
+      <c r="N500" t="s">
         <v>785</v>
-      </c>
-      <c r="N500" t="s">
-        <v>786</v>
       </c>
       <c r="O500" t="s">
         <v>69</v>
@@ -46097,7 +46094,7 @@
         <v>69</v>
       </c>
       <c r="Q500" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R500" t="s">
         <v>64</v>
@@ -46126,7 +46123,7 @@
         <v>520</v>
       </c>
       <c r="B501" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C501">
         <v>69</v>
@@ -46141,25 +46138,25 @@
         <v>57</v>
       </c>
       <c r="G501" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H501">
         <v>41444</v>
       </c>
       <c r="J501" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K501">
         <v>2</v>
       </c>
       <c r="L501" t="s">
+        <v>783</v>
+      </c>
+      <c r="M501" t="s">
         <v>784</v>
       </c>
-      <c r="M501" t="s">
+      <c r="N501" t="s">
         <v>785</v>
-      </c>
-      <c r="N501" t="s">
-        <v>786</v>
       </c>
       <c r="O501" t="s">
         <v>69</v>
@@ -46168,7 +46165,7 @@
         <v>69</v>
       </c>
       <c r="Q501" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R501" t="s">
         <v>64</v>
@@ -46197,7 +46194,7 @@
         <v>521</v>
       </c>
       <c r="B502" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C502">
         <v>69</v>
@@ -46212,25 +46209,25 @@
         <v>57</v>
       </c>
       <c r="G502" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H502">
         <v>41444</v>
       </c>
       <c r="J502" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K502">
         <v>2</v>
       </c>
       <c r="L502" t="s">
+        <v>783</v>
+      </c>
+      <c r="M502" t="s">
         <v>784</v>
       </c>
-      <c r="M502" t="s">
+      <c r="N502" t="s">
         <v>785</v>
-      </c>
-      <c r="N502" t="s">
-        <v>786</v>
       </c>
       <c r="O502" t="s">
         <v>69</v>
@@ -46239,7 +46236,7 @@
         <v>69</v>
       </c>
       <c r="Q502" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="R502" t="s">
         <v>64</v>
@@ -46268,7 +46265,7 @@
         <v>522</v>
       </c>
       <c r="B503" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C503">
         <v>69</v>
@@ -46283,25 +46280,25 @@
         <v>57</v>
       </c>
       <c r="G503" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H503">
         <v>41444</v>
       </c>
       <c r="J503" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K503">
         <v>2</v>
       </c>
       <c r="L503" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M503" t="s">
+        <v>756</v>
+      </c>
+      <c r="N503" t="s">
         <v>757</v>
-      </c>
-      <c r="N503" t="s">
-        <v>758</v>
       </c>
       <c r="O503" t="s">
         <v>78</v>
@@ -46310,7 +46307,7 @@
         <v>78</v>
       </c>
       <c r="Q503" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R503" t="s">
         <v>64</v>
@@ -46339,7 +46336,7 @@
         <v>523</v>
       </c>
       <c r="B504" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C504">
         <v>69</v>
@@ -46354,25 +46351,25 @@
         <v>57</v>
       </c>
       <c r="G504" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H504">
         <v>41444</v>
       </c>
       <c r="J504" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K504">
         <v>2</v>
       </c>
       <c r="L504" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M504" t="s">
+        <v>756</v>
+      </c>
+      <c r="N504" t="s">
         <v>757</v>
-      </c>
-      <c r="N504" t="s">
-        <v>758</v>
       </c>
       <c r="O504" t="s">
         <v>78</v>
@@ -46381,7 +46378,7 @@
         <v>78</v>
       </c>
       <c r="Q504" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="R504" t="s">
         <v>64</v>
@@ -46410,7 +46407,7 @@
         <v>524</v>
       </c>
       <c r="B505" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C505">
         <v>69</v>
@@ -46425,25 +46422,25 @@
         <v>57</v>
       </c>
       <c r="G505" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H505">
         <v>41444</v>
       </c>
       <c r="J505" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K505">
         <v>2</v>
       </c>
       <c r="L505" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M505" t="s">
+        <v>756</v>
+      </c>
+      <c r="N505" t="s">
         <v>757</v>
-      </c>
-      <c r="N505" t="s">
-        <v>758</v>
       </c>
       <c r="O505" t="s">
         <v>78</v>
@@ -46452,7 +46449,7 @@
         <v>78</v>
       </c>
       <c r="Q505" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R505" t="s">
         <v>64</v>
@@ -46481,7 +46478,7 @@
         <v>525</v>
       </c>
       <c r="B506" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C506">
         <v>69</v>
@@ -46496,25 +46493,25 @@
         <v>57</v>
       </c>
       <c r="G506" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H506">
         <v>41444</v>
       </c>
       <c r="J506" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K506">
         <v>2</v>
       </c>
       <c r="L506" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M506" t="s">
+        <v>756</v>
+      </c>
+      <c r="N506" t="s">
         <v>757</v>
-      </c>
-      <c r="N506" t="s">
-        <v>758</v>
       </c>
       <c r="O506" t="s">
         <v>78</v>
@@ -46523,7 +46520,7 @@
         <v>78</v>
       </c>
       <c r="Q506" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="R506" t="s">
         <v>64</v>
@@ -46552,7 +46549,7 @@
         <v>526</v>
       </c>
       <c r="B507" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C507">
         <v>69</v>
@@ -46567,7 +46564,7 @@
         <v>57</v>
       </c>
       <c r="G507" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H507">
         <v>41444</v>
@@ -46585,7 +46582,7 @@
         <v>311</v>
       </c>
       <c r="N507" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O507" t="s">
         <v>83</v>
@@ -46623,7 +46620,7 @@
         <v>527</v>
       </c>
       <c r="B508" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C508">
         <v>70</v>
@@ -46644,19 +46641,19 @@
         <v>38524</v>
       </c>
       <c r="J508" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K508">
         <v>2</v>
       </c>
       <c r="L508" t="s">
+        <v>795</v>
+      </c>
+      <c r="M508" t="s">
         <v>796</v>
       </c>
-      <c r="M508" t="s">
+      <c r="N508" t="s">
         <v>797</v>
-      </c>
-      <c r="N508" t="s">
-        <v>798</v>
       </c>
       <c r="O508" t="s">
         <v>83</v>
@@ -46665,7 +46662,7 @@
         <v>79</v>
       </c>
       <c r="Q508" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R508" t="s">
         <v>64</v>
@@ -46706,7 +46703,7 @@
         <v>528</v>
       </c>
       <c r="B509" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C509">
         <v>70</v>
@@ -46727,19 +46724,19 @@
         <v>38524</v>
       </c>
       <c r="J509" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K509">
         <v>2</v>
       </c>
       <c r="L509" t="s">
+        <v>799</v>
+      </c>
+      <c r="M509" t="s">
         <v>800</v>
       </c>
-      <c r="M509" t="s">
+      <c r="N509" t="s">
         <v>801</v>
-      </c>
-      <c r="N509" t="s">
-        <v>802</v>
       </c>
       <c r="O509" t="s">
         <v>83</v>
@@ -46748,7 +46745,7 @@
         <v>78</v>
       </c>
       <c r="Q509" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R509" t="s">
         <v>64</v>
@@ -46789,7 +46786,7 @@
         <v>529</v>
       </c>
       <c r="B510" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C510">
         <v>70</v>
@@ -46810,19 +46807,19 @@
         <v>38524</v>
       </c>
       <c r="J510" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K510">
         <v>2</v>
       </c>
       <c r="L510" t="s">
+        <v>671</v>
+      </c>
+      <c r="M510" t="s">
         <v>672</v>
       </c>
-      <c r="M510" t="s">
+      <c r="N510" t="s">
         <v>673</v>
-      </c>
-      <c r="N510" t="s">
-        <v>674</v>
       </c>
       <c r="O510" t="s">
         <v>83</v>
@@ -46831,7 +46828,7 @@
         <v>79</v>
       </c>
       <c r="Q510" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="R510" t="s">
         <v>64</v>
@@ -46872,7 +46869,7 @@
         <v>530</v>
       </c>
       <c r="B511" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C511">
         <v>70</v>
@@ -46893,7 +46890,7 @@
         <v>38524</v>
       </c>
       <c r="J511" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K511">
         <v>2</v>
@@ -46902,7 +46899,7 @@
         <v>336</v>
       </c>
       <c r="M511" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N511" t="s">
         <v>460</v>
@@ -46914,7 +46911,7 @@
         <v>79</v>
       </c>
       <c r="Q511" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="R511" t="s">
         <v>64</v>
@@ -46955,7 +46952,7 @@
         <v>531</v>
       </c>
       <c r="B512" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C512">
         <v>70</v>
@@ -46976,19 +46973,19 @@
         <v>38524</v>
       </c>
       <c r="J512" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K512">
         <v>2</v>
       </c>
       <c r="L512" t="s">
+        <v>805</v>
+      </c>
+      <c r="M512" t="s">
         <v>806</v>
       </c>
-      <c r="M512" t="s">
+      <c r="N512" t="s">
         <v>807</v>
-      </c>
-      <c r="N512" t="s">
-        <v>808</v>
       </c>
       <c r="O512" t="s">
         <v>83</v>
@@ -46997,7 +46994,7 @@
         <v>79</v>
       </c>
       <c r="Q512" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R512" t="s">
         <v>64</v>
@@ -47038,7 +47035,7 @@
         <v>532</v>
       </c>
       <c r="B513" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C513">
         <v>70</v>
@@ -47059,19 +47056,19 @@
         <v>38524</v>
       </c>
       <c r="J513" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K513">
         <v>2</v>
       </c>
       <c r="L513" t="s">
+        <v>808</v>
+      </c>
+      <c r="M513" t="s">
         <v>809</v>
       </c>
-      <c r="M513" t="s">
+      <c r="N513" t="s">
         <v>810</v>
-      </c>
-      <c r="N513" t="s">
-        <v>811</v>
       </c>
       <c r="O513" t="s">
         <v>348</v>
@@ -47080,7 +47077,7 @@
         <v>349</v>
       </c>
       <c r="Q513" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="R513" t="s">
         <v>64</v>
@@ -47121,7 +47118,7 @@
         <v>533</v>
       </c>
       <c r="B514" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C514">
         <v>70</v>
@@ -47142,19 +47139,19 @@
         <v>38524</v>
       </c>
       <c r="J514" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K514">
         <v>2</v>
       </c>
       <c r="L514" t="s">
+        <v>523</v>
+      </c>
+      <c r="M514" t="s">
         <v>524</v>
       </c>
-      <c r="M514" t="s">
-        <v>525</v>
-      </c>
       <c r="N514" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O514" t="s">
         <v>83</v>
@@ -47163,7 +47160,7 @@
         <v>79</v>
       </c>
       <c r="Q514" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="R514" t="s">
         <v>64</v>
@@ -47204,7 +47201,7 @@
         <v>534</v>
       </c>
       <c r="B515" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C515">
         <v>70</v>
@@ -47225,19 +47222,19 @@
         <v>38524</v>
       </c>
       <c r="J515" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K515">
         <v>2</v>
       </c>
       <c r="L515" t="s">
+        <v>814</v>
+      </c>
+      <c r="M515" t="s">
         <v>815</v>
       </c>
-      <c r="M515" t="s">
+      <c r="N515" t="s">
         <v>816</v>
-      </c>
-      <c r="N515" t="s">
-        <v>817</v>
       </c>
       <c r="O515" t="s">
         <v>83</v>
@@ -47246,7 +47243,7 @@
         <v>79</v>
       </c>
       <c r="Q515" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R515" t="s">
         <v>64</v>
@@ -47287,7 +47284,7 @@
         <v>535</v>
       </c>
       <c r="B516" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C516">
         <v>70</v>
@@ -47308,19 +47305,19 @@
         <v>38524</v>
       </c>
       <c r="J516" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K516">
         <v>2</v>
       </c>
       <c r="L516" t="s">
+        <v>818</v>
+      </c>
+      <c r="M516" t="s">
         <v>819</v>
       </c>
-      <c r="M516" t="s">
+      <c r="N516" t="s">
         <v>820</v>
-      </c>
-      <c r="N516" t="s">
-        <v>821</v>
       </c>
       <c r="O516" t="s">
         <v>83</v>
@@ -47329,7 +47326,7 @@
         <v>79</v>
       </c>
       <c r="Q516" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="R516" t="s">
         <v>64</v>
@@ -47370,7 +47367,7 @@
         <v>536</v>
       </c>
       <c r="B517" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C517">
         <v>70</v>
@@ -47391,19 +47388,19 @@
         <v>38524</v>
       </c>
       <c r="J517" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K517">
         <v>2</v>
       </c>
       <c r="L517" t="s">
+        <v>822</v>
+      </c>
+      <c r="M517" t="s">
+        <v>514</v>
+      </c>
+      <c r="N517" t="s">
         <v>823</v>
-      </c>
-      <c r="M517" t="s">
-        <v>515</v>
-      </c>
-      <c r="N517" t="s">
-        <v>824</v>
       </c>
       <c r="O517" t="s">
         <v>83</v>
@@ -47412,7 +47409,7 @@
         <v>79</v>
       </c>
       <c r="Q517" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R517" t="s">
         <v>64</v>
@@ -47453,7 +47450,7 @@
         <v>537</v>
       </c>
       <c r="B518" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C518">
         <v>70</v>
@@ -47474,19 +47471,19 @@
         <v>38524</v>
       </c>
       <c r="J518" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K518">
         <v>2</v>
       </c>
       <c r="L518" t="s">
+        <v>825</v>
+      </c>
+      <c r="M518" t="s">
         <v>826</v>
       </c>
-      <c r="M518" t="s">
+      <c r="N518" t="s">
         <v>827</v>
-      </c>
-      <c r="N518" t="s">
-        <v>828</v>
       </c>
       <c r="O518" t="s">
         <v>83</v>
@@ -47495,7 +47492,7 @@
         <v>79</v>
       </c>
       <c r="Q518" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="R518" t="s">
         <v>64</v>
@@ -47536,7 +47533,7 @@
         <v>538</v>
       </c>
       <c r="B519" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C519">
         <v>70</v>
@@ -47557,19 +47554,19 @@
         <v>38524</v>
       </c>
       <c r="J519" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K519">
         <v>2</v>
       </c>
       <c r="L519" t="s">
+        <v>829</v>
+      </c>
+      <c r="M519" t="s">
         <v>830</v>
       </c>
-      <c r="M519" t="s">
+      <c r="N519" t="s">
         <v>831</v>
-      </c>
-      <c r="N519" t="s">
-        <v>832</v>
       </c>
       <c r="O519" t="s">
         <v>83</v>
@@ -47578,7 +47575,7 @@
         <v>79</v>
       </c>
       <c r="Q519" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="R519" t="s">
         <v>64</v>
@@ -47619,7 +47616,7 @@
         <v>539</v>
       </c>
       <c r="B520" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C520">
         <v>70</v>
@@ -47640,19 +47637,19 @@
         <v>38524</v>
       </c>
       <c r="J520" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K520">
         <v>2</v>
       </c>
       <c r="L520" t="s">
+        <v>748</v>
+      </c>
+      <c r="M520" t="s">
         <v>749</v>
       </c>
-      <c r="M520" t="s">
+      <c r="N520" t="s">
         <v>750</v>
-      </c>
-      <c r="N520" t="s">
-        <v>751</v>
       </c>
       <c r="O520" t="s">
         <v>76</v>
@@ -47661,7 +47658,7 @@
         <v>77</v>
       </c>
       <c r="Q520" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="R520" t="s">
         <v>64</v>
@@ -47702,7 +47699,7 @@
         <v>540</v>
       </c>
       <c r="B521" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C521">
         <v>71</v>
@@ -47714,10 +47711,10 @@
         <v>454</v>
       </c>
       <c r="F521" t="s">
+        <v>834</v>
+      </c>
+      <c r="G521" t="s">
         <v>835</v>
-      </c>
-      <c r="G521" t="s">
-        <v>836</v>
       </c>
       <c r="H521">
         <v>38489</v>
@@ -47767,7 +47764,7 @@
         <v>541</v>
       </c>
       <c r="B522" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C522">
         <v>71</v>
@@ -47779,10 +47776,10 @@
         <v>454</v>
       </c>
       <c r="F522" t="s">
+        <v>834</v>
+      </c>
+      <c r="G522" t="s">
         <v>835</v>
-      </c>
-      <c r="G522" t="s">
-        <v>836</v>
       </c>
       <c r="H522">
         <v>38489</v>
@@ -47800,7 +47797,7 @@
         <v>173</v>
       </c>
       <c r="N522" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O522" t="s">
         <v>83</v>
@@ -47832,7 +47829,7 @@
         <v>542</v>
       </c>
       <c r="B523" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C523">
         <v>71</v>
@@ -47844,10 +47841,10 @@
         <v>454</v>
       </c>
       <c r="F523" t="s">
+        <v>834</v>
+      </c>
+      <c r="G523" t="s">
         <v>835</v>
-      </c>
-      <c r="G523" t="s">
-        <v>836</v>
       </c>
       <c r="H523">
         <v>38489</v>
@@ -47859,13 +47856,13 @@
         <v>3</v>
       </c>
       <c r="L523" t="s">
+        <v>837</v>
+      </c>
+      <c r="M523" t="s">
         <v>838</v>
       </c>
-      <c r="M523" t="s">
-        <v>839</v>
-      </c>
       <c r="N523" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O523" t="s">
         <v>83</v>
@@ -47897,7 +47894,7 @@
         <v>543</v>
       </c>
       <c r="B524" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C524">
         <v>71</v>
@@ -47909,10 +47906,10 @@
         <v>454</v>
       </c>
       <c r="F524" t="s">
+        <v>834</v>
+      </c>
+      <c r="G524" t="s">
         <v>835</v>
-      </c>
-      <c r="G524" t="s">
-        <v>836</v>
       </c>
       <c r="H524">
         <v>38489</v>
@@ -47924,13 +47921,13 @@
         <v>3</v>
       </c>
       <c r="L524" t="s">
+        <v>837</v>
+      </c>
+      <c r="M524" t="s">
         <v>838</v>
       </c>
-      <c r="M524" t="s">
-        <v>839</v>
-      </c>
       <c r="N524" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O524" t="s">
         <v>83</v>
@@ -47962,7 +47959,7 @@
         <v>544</v>
       </c>
       <c r="B525" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C525">
         <v>71</v>
@@ -47974,10 +47971,10 @@
         <v>454</v>
       </c>
       <c r="F525" t="s">
+        <v>834</v>
+      </c>
+      <c r="G525" t="s">
         <v>835</v>
-      </c>
-      <c r="G525" t="s">
-        <v>836</v>
       </c>
       <c r="H525">
         <v>38489</v>
@@ -47989,13 +47986,13 @@
         <v>3</v>
       </c>
       <c r="L525" t="s">
+        <v>837</v>
+      </c>
+      <c r="M525" t="s">
         <v>838</v>
       </c>
-      <c r="M525" t="s">
-        <v>839</v>
-      </c>
       <c r="N525" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O525" t="s">
         <v>83</v>
@@ -48027,7 +48024,7 @@
         <v>545</v>
       </c>
       <c r="B526" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C526">
         <v>71</v>
@@ -48039,10 +48036,10 @@
         <v>454</v>
       </c>
       <c r="F526" t="s">
+        <v>834</v>
+      </c>
+      <c r="G526" t="s">
         <v>835</v>
-      </c>
-      <c r="G526" t="s">
-        <v>836</v>
       </c>
       <c r="H526">
         <v>38489</v>
@@ -48054,13 +48051,13 @@
         <v>3</v>
       </c>
       <c r="L526" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M526" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="N526" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O526" t="s">
         <v>83</v>
@@ -48092,7 +48089,7 @@
         <v>546</v>
       </c>
       <c r="B527" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C527">
         <v>71</v>
@@ -48104,10 +48101,10 @@
         <v>454</v>
       </c>
       <c r="F527" t="s">
+        <v>834</v>
+      </c>
+      <c r="G527" t="s">
         <v>835</v>
-      </c>
-      <c r="G527" t="s">
-        <v>836</v>
       </c>
       <c r="H527">
         <v>38489</v>
@@ -48122,10 +48119,10 @@
         <v>208</v>
       </c>
       <c r="M527" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="N527" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O527" t="s">
         <v>83</v>
@@ -48134,7 +48131,7 @@
         <v>79</v>
       </c>
       <c r="Q527" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R527" t="s">
         <v>64</v>
@@ -48157,7 +48154,7 @@
         <v>547</v>
       </c>
       <c r="B528" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C528">
         <v>71</v>
@@ -48169,10 +48166,10 @@
         <v>454</v>
       </c>
       <c r="F528" t="s">
+        <v>834</v>
+      </c>
+      <c r="G528" t="s">
         <v>835</v>
-      </c>
-      <c r="G528" t="s">
-        <v>836</v>
       </c>
       <c r="H528">
         <v>38489</v>
@@ -48190,7 +48187,7 @@
         <v>155</v>
       </c>
       <c r="N528" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O528" t="s">
         <v>83</v>
@@ -48199,7 +48196,7 @@
         <v>79</v>
       </c>
       <c r="Q528" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="R528" t="s">
         <v>64</v>
@@ -48222,7 +48219,7 @@
         <v>548</v>
       </c>
       <c r="B529" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C529">
         <v>72</v>
@@ -48234,34 +48231,34 @@
         <v>314</v>
       </c>
       <c r="F529" t="s">
+        <v>844</v>
+      </c>
+      <c r="G529" t="s">
         <v>845</v>
-      </c>
-      <c r="G529" t="s">
-        <v>846</v>
       </c>
       <c r="H529">
         <v>38484</v>
       </c>
       <c r="J529" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K529">
         <v>2</v>
       </c>
       <c r="L529" t="s">
+        <v>847</v>
+      </c>
+      <c r="M529" t="s">
         <v>848</v>
       </c>
-      <c r="M529" t="s">
+      <c r="N529" t="s">
         <v>849</v>
       </c>
-      <c r="N529" t="s">
+      <c r="O529" t="s">
         <v>850</v>
       </c>
-      <c r="O529" t="s">
-        <v>851</v>
-      </c>
       <c r="P529" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Q529">
         <v>20</v>
@@ -48305,7 +48302,7 @@
         <v>549</v>
       </c>
       <c r="B530" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C530">
         <v>72</v>
@@ -48317,34 +48314,34 @@
         <v>314</v>
       </c>
       <c r="F530" t="s">
+        <v>844</v>
+      </c>
+      <c r="G530" t="s">
         <v>845</v>
-      </c>
-      <c r="G530" t="s">
-        <v>846</v>
       </c>
       <c r="H530">
         <v>38484</v>
       </c>
       <c r="J530" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K530">
         <v>2</v>
       </c>
       <c r="L530" t="s">
+        <v>847</v>
+      </c>
+      <c r="M530" t="s">
         <v>848</v>
       </c>
-      <c r="M530" t="s">
+      <c r="N530" t="s">
         <v>849</v>
       </c>
-      <c r="N530" t="s">
+      <c r="O530" t="s">
         <v>850</v>
       </c>
-      <c r="O530" t="s">
-        <v>851</v>
-      </c>
       <c r="P530" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Q530">
         <v>20</v>
@@ -48388,7 +48385,7 @@
         <v>550</v>
       </c>
       <c r="B531" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C531">
         <v>72</v>
@@ -48400,10 +48397,10 @@
         <v>314</v>
       </c>
       <c r="F531" t="s">
+        <v>844</v>
+      </c>
+      <c r="G531" t="s">
         <v>845</v>
-      </c>
-      <c r="G531" t="s">
-        <v>846</v>
       </c>
       <c r="H531">
         <v>38484</v>
@@ -48415,13 +48412,13 @@
         <v>1</v>
       </c>
       <c r="L531" t="s">
+        <v>851</v>
+      </c>
+      <c r="M531" t="s">
         <v>852</v>
       </c>
-      <c r="M531" t="s">
+      <c r="N531" t="s">
         <v>853</v>
-      </c>
-      <c r="N531" t="s">
-        <v>854</v>
       </c>
       <c r="O531" t="s">
         <v>83</v>
@@ -48430,7 +48427,7 @@
         <v>79</v>
       </c>
       <c r="Q531" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="R531" t="s">
         <v>64</v>
@@ -48471,7 +48468,7 @@
         <v>551</v>
       </c>
       <c r="B532" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C532">
         <v>72</v>
@@ -48483,10 +48480,10 @@
         <v>314</v>
       </c>
       <c r="F532" t="s">
+        <v>844</v>
+      </c>
+      <c r="G532" t="s">
         <v>845</v>
-      </c>
-      <c r="G532" t="s">
-        <v>846</v>
       </c>
       <c r="H532">
         <v>38484</v>
@@ -48554,7 +48551,7 @@
         <v>552</v>
       </c>
       <c r="B533" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C533">
         <v>72</v>
@@ -48566,10 +48563,10 @@
         <v>314</v>
       </c>
       <c r="F533" t="s">
+        <v>844</v>
+      </c>
+      <c r="G533" t="s">
         <v>845</v>
-      </c>
-      <c r="G533" t="s">
-        <v>846</v>
       </c>
       <c r="H533">
         <v>38484</v>
@@ -48584,7 +48581,7 @@
         <v>89</v>
       </c>
       <c r="M533" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N533" t="s">
         <v>68</v>
@@ -48637,7 +48634,7 @@
         <v>553</v>
       </c>
       <c r="B534" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C534">
         <v>72</v>
@@ -48649,10 +48646,10 @@
         <v>314</v>
       </c>
       <c r="F534" t="s">
+        <v>844</v>
+      </c>
+      <c r="G534" t="s">
         <v>845</v>
-      </c>
-      <c r="G534" t="s">
-        <v>846</v>
       </c>
       <c r="H534">
         <v>38484</v>
@@ -48667,7 +48664,7 @@
         <v>92</v>
       </c>
       <c r="M534" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N534" t="s">
         <v>134</v>
@@ -48720,7 +48717,7 @@
         <v>554</v>
       </c>
       <c r="B535" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C535">
         <v>72</v>
@@ -48732,10 +48729,10 @@
         <v>314</v>
       </c>
       <c r="F535" t="s">
+        <v>844</v>
+      </c>
+      <c r="G535" t="s">
         <v>845</v>
-      </c>
-      <c r="G535" t="s">
-        <v>846</v>
       </c>
       <c r="H535">
         <v>38484</v>
@@ -48803,7 +48800,7 @@
         <v>555</v>
       </c>
       <c r="B536" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C536">
         <v>72</v>
@@ -48815,10 +48812,10 @@
         <v>314</v>
       </c>
       <c r="F536" t="s">
+        <v>844</v>
+      </c>
+      <c r="G536" t="s">
         <v>845</v>
-      </c>
-      <c r="G536" t="s">
-        <v>846</v>
       </c>
       <c r="H536">
         <v>38484</v>
@@ -48886,7 +48883,7 @@
         <v>556</v>
       </c>
       <c r="B537" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C537">
         <v>72</v>
@@ -48898,10 +48895,10 @@
         <v>314</v>
       </c>
       <c r="F537" t="s">
+        <v>844</v>
+      </c>
+      <c r="G537" t="s">
         <v>845</v>
-      </c>
-      <c r="G537" t="s">
-        <v>846</v>
       </c>
       <c r="H537">
         <v>38484</v>
@@ -48969,7 +48966,7 @@
         <v>557</v>
       </c>
       <c r="B538" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C538">
         <v>72</v>
@@ -48981,10 +48978,10 @@
         <v>314</v>
       </c>
       <c r="F538" t="s">
+        <v>844</v>
+      </c>
+      <c r="G538" t="s">
         <v>845</v>
-      </c>
-      <c r="G538" t="s">
-        <v>846</v>
       </c>
       <c r="H538">
         <v>38484</v>
@@ -49052,7 +49049,7 @@
         <v>558</v>
       </c>
       <c r="B539" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C539">
         <v>72</v>
@@ -49064,16 +49061,16 @@
         <v>314</v>
       </c>
       <c r="F539" t="s">
+        <v>844</v>
+      </c>
+      <c r="G539" t="s">
         <v>845</v>
-      </c>
-      <c r="G539" t="s">
-        <v>846</v>
       </c>
       <c r="H539">
         <v>38484</v>
       </c>
       <c r="J539" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K539">
         <v>2</v>
@@ -49135,7 +49132,7 @@
         <v>559</v>
       </c>
       <c r="B540" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C540">
         <v>72</v>
@@ -49147,10 +49144,10 @@
         <v>314</v>
       </c>
       <c r="F540" t="s">
+        <v>844</v>
+      </c>
+      <c r="G540" t="s">
         <v>845</v>
-      </c>
-      <c r="G540" t="s">
-        <v>846</v>
       </c>
       <c r="H540">
         <v>38484</v>
@@ -49194,7 +49191,7 @@
         <v>560</v>
       </c>
       <c r="B541" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C541">
         <v>72</v>
@@ -49206,10 +49203,10 @@
         <v>314</v>
       </c>
       <c r="F541" t="s">
+        <v>844</v>
+      </c>
+      <c r="G541" t="s">
         <v>845</v>
-      </c>
-      <c r="G541" t="s">
-        <v>846</v>
       </c>
       <c r="H541">
         <v>38484</v>
@@ -49224,7 +49221,7 @@
         <v>89</v>
       </c>
       <c r="M541" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N541" t="s">
         <v>68</v>
@@ -49253,7 +49250,7 @@
         <v>561</v>
       </c>
       <c r="B542" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C542">
         <v>72</v>
@@ -49265,16 +49262,16 @@
         <v>314</v>
       </c>
       <c r="F542" t="s">
+        <v>844</v>
+      </c>
+      <c r="G542" t="s">
         <v>845</v>
-      </c>
-      <c r="G542" t="s">
-        <v>846</v>
       </c>
       <c r="H542">
         <v>38484</v>
       </c>
       <c r="J542" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K542">
         <v>2</v>
@@ -49312,7 +49309,7 @@
         <v>562</v>
       </c>
       <c r="B543" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C543">
         <v>72</v>
@@ -49324,16 +49321,16 @@
         <v>314</v>
       </c>
       <c r="F543" t="s">
+        <v>844</v>
+      </c>
+      <c r="G543" t="s">
         <v>845</v>
-      </c>
-      <c r="G543" t="s">
-        <v>846</v>
       </c>
       <c r="H543">
         <v>38484</v>
       </c>
       <c r="J543" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K543">
         <v>2</v>
@@ -49345,7 +49342,7 @@
         <v>173</v>
       </c>
       <c r="N543" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O543" t="s">
         <v>83</v>
@@ -49371,7 +49368,7 @@
         <v>563</v>
       </c>
       <c r="B544" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C544">
         <v>73</v>
@@ -49383,10 +49380,10 @@
         <v>314</v>
       </c>
       <c r="F544" t="s">
+        <v>844</v>
+      </c>
+      <c r="G544" t="s">
         <v>845</v>
-      </c>
-      <c r="G544" t="s">
-        <v>846</v>
       </c>
       <c r="H544">
         <v>38489</v>
@@ -49401,7 +49398,7 @@
         <v>89</v>
       </c>
       <c r="M544" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N544" t="s">
         <v>68</v>
@@ -49466,7 +49463,7 @@
         <v>564</v>
       </c>
       <c r="B545" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C545">
         <v>73</v>
@@ -49478,10 +49475,10 @@
         <v>314</v>
       </c>
       <c r="F545" t="s">
+        <v>844</v>
+      </c>
+      <c r="G545" t="s">
         <v>845</v>
-      </c>
-      <c r="G545" t="s">
-        <v>846</v>
       </c>
       <c r="H545">
         <v>38489</v>
@@ -49561,7 +49558,7 @@
         <v>565</v>
       </c>
       <c r="B546" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C546">
         <v>73</v>
@@ -49573,10 +49570,10 @@
         <v>314</v>
       </c>
       <c r="F546" t="s">
+        <v>844</v>
+      </c>
+      <c r="G546" t="s">
         <v>845</v>
-      </c>
-      <c r="G546" t="s">
-        <v>846</v>
       </c>
       <c r="H546">
         <v>38489</v>
@@ -49591,7 +49588,7 @@
         <v>92</v>
       </c>
       <c r="M546" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N546" t="s">
         <v>134</v>
@@ -49656,7 +49653,7 @@
         <v>566</v>
       </c>
       <c r="B547" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C547">
         <v>73</v>
@@ -49668,10 +49665,10 @@
         <v>314</v>
       </c>
       <c r="F547" t="s">
+        <v>844</v>
+      </c>
+      <c r="G547" t="s">
         <v>845</v>
-      </c>
-      <c r="G547" t="s">
-        <v>846</v>
       </c>
       <c r="H547">
         <v>38489</v>
@@ -49686,7 +49683,7 @@
         <v>89</v>
       </c>
       <c r="M547" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N547" t="s">
         <v>68</v>
@@ -49751,7 +49748,7 @@
         <v>567</v>
       </c>
       <c r="B548" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C548">
         <v>73</v>
@@ -49763,10 +49760,10 @@
         <v>314</v>
       </c>
       <c r="F548" t="s">
+        <v>844</v>
+      </c>
+      <c r="G548" t="s">
         <v>845</v>
-      </c>
-      <c r="G548" t="s">
-        <v>846</v>
       </c>
       <c r="H548">
         <v>38489</v>
@@ -49846,7 +49843,7 @@
         <v>568</v>
       </c>
       <c r="B549" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C549">
         <v>73</v>
@@ -49858,10 +49855,10 @@
         <v>314</v>
       </c>
       <c r="F549" t="s">
+        <v>844</v>
+      </c>
+      <c r="G549" t="s">
         <v>845</v>
-      </c>
-      <c r="G549" t="s">
-        <v>846</v>
       </c>
       <c r="H549">
         <v>38489</v>
@@ -49876,7 +49873,7 @@
         <v>92</v>
       </c>
       <c r="M549" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N549" t="s">
         <v>134</v>
@@ -49941,7 +49938,7 @@
         <v>569</v>
       </c>
       <c r="B550" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C550">
         <v>73</v>
@@ -49953,16 +49950,16 @@
         <v>314</v>
       </c>
       <c r="F550" t="s">
+        <v>844</v>
+      </c>
+      <c r="G550" t="s">
         <v>845</v>
-      </c>
-      <c r="G550" t="s">
-        <v>846</v>
       </c>
       <c r="H550">
         <v>38489</v>
       </c>
       <c r="J550" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K550">
         <v>2</v>
@@ -49974,7 +49971,7 @@
         <v>173</v>
       </c>
       <c r="N550" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O550" t="s">
         <v>83</v>
@@ -50036,7 +50033,7 @@
         <v>570</v>
       </c>
       <c r="B551" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C551">
         <v>73</v>
@@ -50048,10 +50045,10 @@
         <v>314</v>
       </c>
       <c r="F551" t="s">
+        <v>844</v>
+      </c>
+      <c r="G551" t="s">
         <v>845</v>
-      </c>
-      <c r="G551" t="s">
-        <v>846</v>
       </c>
       <c r="H551">
         <v>38489</v>
@@ -50131,7 +50128,7 @@
         <v>571</v>
       </c>
       <c r="B552" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C552">
         <v>73</v>
@@ -50143,10 +50140,10 @@
         <v>314</v>
       </c>
       <c r="F552" t="s">
+        <v>844</v>
+      </c>
+      <c r="G552" t="s">
         <v>845</v>
-      </c>
-      <c r="G552" t="s">
-        <v>846</v>
       </c>
       <c r="H552">
         <v>38489</v>
@@ -50161,7 +50158,7 @@
         <v>89</v>
       </c>
       <c r="M552" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N552" t="s">
         <v>68</v>
@@ -50226,7 +50223,7 @@
         <v>572</v>
       </c>
       <c r="B553" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C553">
         <v>73</v>
@@ -50238,10 +50235,10 @@
         <v>314</v>
       </c>
       <c r="F553" t="s">
+        <v>844</v>
+      </c>
+      <c r="G553" t="s">
         <v>845</v>
-      </c>
-      <c r="G553" t="s">
-        <v>846</v>
       </c>
       <c r="H553">
         <v>38489</v>
@@ -50321,7 +50318,7 @@
         <v>573</v>
       </c>
       <c r="B554" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C554">
         <v>73</v>
@@ -50333,10 +50330,10 @@
         <v>314</v>
       </c>
       <c r="F554" t="s">
+        <v>844</v>
+      </c>
+      <c r="G554" t="s">
         <v>845</v>
-      </c>
-      <c r="G554" t="s">
-        <v>846</v>
       </c>
       <c r="H554">
         <v>38489</v>
@@ -50416,7 +50413,7 @@
         <v>574</v>
       </c>
       <c r="B555" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C555">
         <v>73</v>
@@ -50428,10 +50425,10 @@
         <v>314</v>
       </c>
       <c r="F555" t="s">
+        <v>844</v>
+      </c>
+      <c r="G555" t="s">
         <v>845</v>
-      </c>
-      <c r="G555" t="s">
-        <v>846</v>
       </c>
       <c r="H555">
         <v>38489</v>
@@ -50446,10 +50443,10 @@
         <v>120</v>
       </c>
       <c r="M555" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N555" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O555" t="s">
         <v>78</v>
@@ -50475,7 +50472,7 @@
         <v>575</v>
       </c>
       <c r="B556" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C556">
         <v>73</v>
@@ -50487,10 +50484,10 @@
         <v>314</v>
       </c>
       <c r="F556" t="s">
+        <v>844</v>
+      </c>
+      <c r="G556" t="s">
         <v>845</v>
-      </c>
-      <c r="G556" t="s">
-        <v>846</v>
       </c>
       <c r="H556">
         <v>38489</v>
@@ -50505,7 +50502,7 @@
         <v>89</v>
       </c>
       <c r="M556" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N556" t="s">
         <v>68</v>
@@ -50534,7 +50531,7 @@
         <v>576</v>
       </c>
       <c r="B557" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C557">
         <v>73</v>
@@ -50546,10 +50543,10 @@
         <v>314</v>
       </c>
       <c r="F557" t="s">
+        <v>844</v>
+      </c>
+      <c r="G557" t="s">
         <v>845</v>
-      </c>
-      <c r="G557" t="s">
-        <v>846</v>
       </c>
       <c r="H557">
         <v>38489</v>
@@ -50593,7 +50590,7 @@
         <v>577</v>
       </c>
       <c r="B558" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C558">
         <v>73</v>
@@ -50605,10 +50602,10 @@
         <v>314</v>
       </c>
       <c r="F558" t="s">
+        <v>844</v>
+      </c>
+      <c r="G558" t="s">
         <v>845</v>
-      </c>
-      <c r="G558" t="s">
-        <v>846</v>
       </c>
       <c r="H558">
         <v>38489</v>
@@ -50623,7 +50620,7 @@
         <v>89</v>
       </c>
       <c r="M558" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N558" t="s">
         <v>68</v>
@@ -50652,7 +50649,7 @@
         <v>578</v>
       </c>
       <c r="B559" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C559">
         <v>74</v>
@@ -50673,19 +50670,19 @@
         <v>38869</v>
       </c>
       <c r="J559" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K559">
         <v>2</v>
       </c>
       <c r="L559" t="s">
+        <v>795</v>
+      </c>
+      <c r="M559" t="s">
         <v>796</v>
       </c>
-      <c r="M559" t="s">
+      <c r="N559" t="s">
         <v>797</v>
-      </c>
-      <c r="N559" t="s">
-        <v>798</v>
       </c>
       <c r="O559" t="s">
         <v>83</v>
@@ -50694,7 +50691,7 @@
         <v>79</v>
       </c>
       <c r="Q559" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R559" t="s">
         <v>64</v>
@@ -50747,7 +50744,7 @@
         <v>579</v>
       </c>
       <c r="B560" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C560">
         <v>74</v>
@@ -50768,19 +50765,19 @@
         <v>38870</v>
       </c>
       <c r="J560" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K560">
         <v>2</v>
       </c>
       <c r="L560" t="s">
+        <v>799</v>
+      </c>
+      <c r="M560" t="s">
         <v>800</v>
       </c>
-      <c r="M560" t="s">
+      <c r="N560" t="s">
         <v>801</v>
-      </c>
-      <c r="N560" t="s">
-        <v>802</v>
       </c>
       <c r="O560" t="s">
         <v>83</v>
@@ -50789,7 +50786,7 @@
         <v>78</v>
       </c>
       <c r="Q560" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R560" t="s">
         <v>64</v>
@@ -50798,7 +50795,7 @@
         <v>5</v>
       </c>
       <c r="T560" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Y560">
         <v>6</v>
@@ -50842,7 +50839,7 @@
         <v>580</v>
       </c>
       <c r="B561" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C561">
         <v>74</v>
@@ -50863,19 +50860,19 @@
         <v>38871</v>
       </c>
       <c r="J561" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K561">
         <v>2</v>
       </c>
       <c r="L561" t="s">
+        <v>671</v>
+      </c>
+      <c r="M561" t="s">
         <v>672</v>
       </c>
-      <c r="M561" t="s">
+      <c r="N561" t="s">
         <v>673</v>
-      </c>
-      <c r="N561" t="s">
-        <v>674</v>
       </c>
       <c r="O561" t="s">
         <v>83</v>
@@ -50884,7 +50881,7 @@
         <v>79</v>
       </c>
       <c r="Q561" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="R561" t="s">
         <v>64</v>
@@ -50893,7 +50890,7 @@
         <v>6</v>
       </c>
       <c r="T561" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Y561">
         <v>6</v>
@@ -50937,7 +50934,7 @@
         <v>581</v>
       </c>
       <c r="B562" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C562">
         <v>74</v>
@@ -50958,19 +50955,19 @@
         <v>38872</v>
       </c>
       <c r="J562" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K562">
         <v>2</v>
       </c>
       <c r="L562" t="s">
+        <v>863</v>
+      </c>
+      <c r="M562" t="s">
         <v>864</v>
       </c>
-      <c r="M562" t="s">
+      <c r="N562" t="s">
         <v>865</v>
-      </c>
-      <c r="N562" t="s">
-        <v>866</v>
       </c>
       <c r="O562" t="s">
         <v>83</v>
@@ -50979,7 +50976,7 @@
         <v>79</v>
       </c>
       <c r="Q562" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="R562" t="s">
         <v>64</v>
@@ -50988,7 +50985,7 @@
         <v>7</v>
       </c>
       <c r="T562" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Y562">
         <v>0</v>
@@ -51032,7 +51029,7 @@
         <v>582</v>
       </c>
       <c r="B563" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C563">
         <v>74</v>
@@ -51053,19 +51050,19 @@
         <v>38873</v>
       </c>
       <c r="J563" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K563">
         <v>2</v>
       </c>
       <c r="L563" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M563" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="N563" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O563" t="s">
         <v>83</v>
@@ -51074,7 +51071,7 @@
         <v>79</v>
       </c>
       <c r="Q563" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R563" t="s">
         <v>64</v>
@@ -51083,7 +51080,7 @@
         <v>8</v>
       </c>
       <c r="T563" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Y563">
         <v>2</v>
@@ -51127,7 +51124,7 @@
         <v>583</v>
       </c>
       <c r="B564" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C564">
         <v>74</v>
@@ -51148,19 +51145,19 @@
         <v>38874</v>
       </c>
       <c r="J564" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K564">
         <v>2</v>
       </c>
       <c r="L564" t="s">
+        <v>871</v>
+      </c>
+      <c r="M564" t="s">
         <v>872</v>
       </c>
-      <c r="M564" t="s">
+      <c r="N564" t="s">
         <v>873</v>
-      </c>
-      <c r="N564" t="s">
-        <v>874</v>
       </c>
       <c r="O564" t="s">
         <v>83</v>
@@ -51169,7 +51166,7 @@
         <v>79</v>
       </c>
       <c r="Q564" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R564" t="s">
         <v>64</v>
@@ -51178,7 +51175,7 @@
         <v>9</v>
       </c>
       <c r="T564" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Y564">
         <v>2</v>
@@ -51222,7 +51219,7 @@
         <v>584</v>
       </c>
       <c r="B565" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C565">
         <v>74</v>
@@ -51243,19 +51240,19 @@
         <v>38875</v>
       </c>
       <c r="J565" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K565">
         <v>2</v>
       </c>
       <c r="L565" t="s">
+        <v>523</v>
+      </c>
+      <c r="M565" t="s">
         <v>524</v>
       </c>
-      <c r="M565" t="s">
-        <v>525</v>
-      </c>
       <c r="N565" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O565" t="s">
         <v>83</v>
@@ -51264,7 +51261,7 @@
         <v>79</v>
       </c>
       <c r="Q565" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="R565" t="s">
         <v>64</v>
@@ -51273,7 +51270,7 @@
         <v>10</v>
       </c>
       <c r="T565" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Y565">
         <v>1</v>
@@ -51317,7 +51314,7 @@
         <v>585</v>
       </c>
       <c r="B566" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C566">
         <v>74</v>
@@ -51338,19 +51335,19 @@
         <v>38876</v>
       </c>
       <c r="J566" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K566">
         <v>2</v>
       </c>
       <c r="L566" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="M566" t="s">
+        <v>879</v>
+      </c>
+      <c r="N566" t="s">
         <v>880</v>
-      </c>
-      <c r="N566" t="s">
-        <v>881</v>
       </c>
       <c r="O566" t="s">
         <v>83</v>
@@ -51359,7 +51356,7 @@
         <v>79</v>
       </c>
       <c r="Q566" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R566" t="s">
         <v>64</v>
@@ -51368,7 +51365,7 @@
         <v>11</v>
       </c>
       <c r="T566" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Y566">
         <v>1</v>
@@ -51412,7 +51409,7 @@
         <v>586</v>
       </c>
       <c r="B567" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C567">
         <v>74</v>
@@ -51433,19 +51430,19 @@
         <v>38877</v>
       </c>
       <c r="J567" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K567">
         <v>2</v>
       </c>
       <c r="L567" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M567" t="s">
+        <v>883</v>
+      </c>
+      <c r="N567" t="s">
         <v>884</v>
-      </c>
-      <c r="N567" t="s">
-        <v>885</v>
       </c>
       <c r="O567" t="s">
         <v>83</v>
@@ -51454,7 +51451,7 @@
         <v>79</v>
       </c>
       <c r="Q567" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R567" t="s">
         <v>64</v>
@@ -51463,7 +51460,7 @@
         <v>12</v>
       </c>
       <c r="T567" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Y567">
         <v>6</v>
@@ -51507,7 +51504,7 @@
         <v>587</v>
       </c>
       <c r="B568" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C568">
         <v>74</v>
@@ -51528,19 +51525,19 @@
         <v>38878</v>
       </c>
       <c r="J568" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K568">
         <v>2</v>
       </c>
       <c r="L568" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M568" t="s">
+        <v>887</v>
+      </c>
+      <c r="N568" t="s">
         <v>888</v>
-      </c>
-      <c r="N568" t="s">
-        <v>889</v>
       </c>
       <c r="O568" t="s">
         <v>83</v>
@@ -51549,7 +51546,7 @@
         <v>79</v>
       </c>
       <c r="Q568" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="R568" t="s">
         <v>64</v>
@@ -51558,7 +51555,7 @@
         <v>13</v>
       </c>
       <c r="T568" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Y568">
         <v>6</v>
@@ -51602,7 +51599,7 @@
         <v>588</v>
       </c>
       <c r="B569" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C569">
         <v>74</v>
@@ -51623,19 +51620,19 @@
         <v>38879</v>
       </c>
       <c r="J569" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K569">
         <v>2</v>
       </c>
       <c r="L569" t="s">
+        <v>890</v>
+      </c>
+      <c r="M569" t="s">
         <v>891</v>
       </c>
-      <c r="M569" t="s">
+      <c r="N569" t="s">
         <v>892</v>
-      </c>
-      <c r="N569" t="s">
-        <v>893</v>
       </c>
       <c r="O569" t="s">
         <v>83</v>
@@ -51644,7 +51641,7 @@
         <v>79</v>
       </c>
       <c r="Q569" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="R569" t="s">
         <v>64</v>
@@ -51653,7 +51650,7 @@
         <v>14</v>
       </c>
       <c r="T569" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Y569">
         <v>2</v>
@@ -51697,7 +51694,7 @@
         <v>589</v>
       </c>
       <c r="B570" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C570">
         <v>74</v>
@@ -51718,19 +51715,19 @@
         <v>38880</v>
       </c>
       <c r="J570" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K570">
         <v>2</v>
       </c>
       <c r="L570" t="s">
+        <v>895</v>
+      </c>
+      <c r="M570" t="s">
         <v>896</v>
       </c>
-      <c r="M570" t="s">
+      <c r="N570" t="s">
         <v>897</v>
-      </c>
-      <c r="N570" t="s">
-        <v>898</v>
       </c>
       <c r="O570" t="s">
         <v>83</v>
@@ -51739,7 +51736,7 @@
         <v>79</v>
       </c>
       <c r="Q570" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R570" t="s">
         <v>64</v>
@@ -51748,7 +51745,7 @@
         <v>15</v>
       </c>
       <c r="T570" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="Y570">
         <v>2</v>
@@ -51812,381 +51809,381 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="B10" t="s">
         <v>909</v>
-      </c>
-      <c r="B10" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="8" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B56" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B57" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="10" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="10" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="66" spans="1:1" s="10" customFormat="1">
       <c r="A66" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="67" spans="1:1" s="10" customFormat="1">
       <c r="A67" s="10" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="68" spans="1:1" s="10" customFormat="1">
       <c r="A68" s="10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="69" spans="1:1" s="10" customFormat="1">
       <c r="A69" s="10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="70" spans="1:1" s="10" customFormat="1">
       <c r="A70" s="10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="71" spans="1:1" s="10" customFormat="1">
       <c r="A71" s="10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="72" spans="1:1" s="10" customFormat="1">
       <c r="A72" s="10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="74" spans="1:1" s="10" customFormat="1">
       <c r="A74" s="10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>

--- a/data/workspace.xlsx
+++ b/data/workspace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="workspace.csv" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6910" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6910" uniqueCount="966">
   <si>
     <t>FID</t>
   </si>
@@ -2462,9 +2462,6 @@
   </si>
   <si>
     <t>myc fb myc + pyra</t>
-  </si>
-  <si>
-    <t>7 fb 7 = 6</t>
   </si>
   <si>
     <t>Quilt fb Folicur</t>
@@ -4333,8 +4330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AW1" sqref="AW1:BD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F506" workbookViewId="0">
+      <selection activeCell="Q516" sqref="Q516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -46234,7 +46231,7 @@
         <v>72</v>
       </c>
       <c r="Q516" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="R516" t="s">
         <v>57</v>
@@ -46290,13 +46287,13 @@
         <v>2</v>
       </c>
       <c r="L517" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="M517" t="s">
         <v>507</v>
       </c>
       <c r="N517" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O517" t="s">
         <v>76</v>
@@ -46305,7 +46302,7 @@
         <v>72</v>
       </c>
       <c r="Q517" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="R517" t="s">
         <v>57</v>
@@ -46361,13 +46358,13 @@
         <v>2</v>
       </c>
       <c r="L518" t="s">
+        <v>817</v>
+      </c>
+      <c r="M518" t="s">
         <v>818</v>
       </c>
-      <c r="M518" t="s">
+      <c r="N518" t="s">
         <v>819</v>
-      </c>
-      <c r="N518" t="s">
-        <v>820</v>
       </c>
       <c r="O518" t="s">
         <v>76</v>
@@ -46376,7 +46373,7 @@
         <v>72</v>
       </c>
       <c r="Q518" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R518" t="s">
         <v>57</v>
@@ -46432,13 +46429,13 @@
         <v>2</v>
       </c>
       <c r="L519" t="s">
+        <v>821</v>
+      </c>
+      <c r="M519" t="s">
         <v>822</v>
       </c>
-      <c r="M519" t="s">
+      <c r="N519" t="s">
         <v>823</v>
-      </c>
-      <c r="N519" t="s">
-        <v>824</v>
       </c>
       <c r="O519" t="s">
         <v>76</v>
@@ -46447,7 +46444,7 @@
         <v>72</v>
       </c>
       <c r="Q519" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R519" t="s">
         <v>57</v>
@@ -46547,7 +46544,7 @@
         <v>540</v>
       </c>
       <c r="B521" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C521">
         <v>71</v>
@@ -46559,10 +46556,10 @@
         <v>447</v>
       </c>
       <c r="F521" t="s">
+        <v>826</v>
+      </c>
+      <c r="G521" t="s">
         <v>827</v>
-      </c>
-      <c r="G521" t="s">
-        <v>828</v>
       </c>
       <c r="H521">
         <v>38489</v>
@@ -46612,7 +46609,7 @@
         <v>541</v>
       </c>
       <c r="B522" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C522">
         <v>71</v>
@@ -46624,10 +46621,10 @@
         <v>447</v>
       </c>
       <c r="F522" t="s">
+        <v>826</v>
+      </c>
+      <c r="G522" t="s">
         <v>827</v>
-      </c>
-      <c r="G522" t="s">
-        <v>828</v>
       </c>
       <c r="H522">
         <v>38489</v>
@@ -46645,7 +46642,7 @@
         <v>166</v>
       </c>
       <c r="N522" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O522" t="s">
         <v>76</v>
@@ -46677,7 +46674,7 @@
         <v>542</v>
       </c>
       <c r="B523" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C523">
         <v>71</v>
@@ -46689,10 +46686,10 @@
         <v>447</v>
       </c>
       <c r="F523" t="s">
+        <v>826</v>
+      </c>
+      <c r="G523" t="s">
         <v>827</v>
-      </c>
-      <c r="G523" t="s">
-        <v>828</v>
       </c>
       <c r="H523">
         <v>38489</v>
@@ -46704,10 +46701,10 @@
         <v>3</v>
       </c>
       <c r="L523" t="s">
+        <v>829</v>
+      </c>
+      <c r="M523" t="s">
         <v>830</v>
-      </c>
-      <c r="M523" t="s">
-        <v>831</v>
       </c>
       <c r="N523" t="s">
         <v>685</v>
@@ -46742,7 +46739,7 @@
         <v>543</v>
       </c>
       <c r="B524" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C524">
         <v>71</v>
@@ -46754,10 +46751,10 @@
         <v>447</v>
       </c>
       <c r="F524" t="s">
+        <v>826</v>
+      </c>
+      <c r="G524" t="s">
         <v>827</v>
-      </c>
-      <c r="G524" t="s">
-        <v>828</v>
       </c>
       <c r="H524">
         <v>38489</v>
@@ -46769,10 +46766,10 @@
         <v>3</v>
       </c>
       <c r="L524" t="s">
+        <v>829</v>
+      </c>
+      <c r="M524" t="s">
         <v>830</v>
-      </c>
-      <c r="M524" t="s">
-        <v>831</v>
       </c>
       <c r="N524" t="s">
         <v>685</v>
@@ -46807,7 +46804,7 @@
         <v>544</v>
       </c>
       <c r="B525" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C525">
         <v>71</v>
@@ -46819,10 +46816,10 @@
         <v>447</v>
       </c>
       <c r="F525" t="s">
+        <v>826</v>
+      </c>
+      <c r="G525" t="s">
         <v>827</v>
-      </c>
-      <c r="G525" t="s">
-        <v>828</v>
       </c>
       <c r="H525">
         <v>38489</v>
@@ -46834,10 +46831,10 @@
         <v>3</v>
       </c>
       <c r="L525" t="s">
+        <v>829</v>
+      </c>
+      <c r="M525" t="s">
         <v>830</v>
-      </c>
-      <c r="M525" t="s">
-        <v>831</v>
       </c>
       <c r="N525" t="s">
         <v>685</v>
@@ -46872,7 +46869,7 @@
         <v>545</v>
       </c>
       <c r="B526" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C526">
         <v>71</v>
@@ -46884,10 +46881,10 @@
         <v>447</v>
       </c>
       <c r="F526" t="s">
+        <v>826</v>
+      </c>
+      <c r="G526" t="s">
         <v>827</v>
-      </c>
-      <c r="G526" t="s">
-        <v>828</v>
       </c>
       <c r="H526">
         <v>38489</v>
@@ -46902,7 +46899,7 @@
         <v>501</v>
       </c>
       <c r="M526" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N526" t="s">
         <v>659</v>
@@ -46937,7 +46934,7 @@
         <v>546</v>
       </c>
       <c r="B527" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C527">
         <v>71</v>
@@ -46949,10 +46946,10 @@
         <v>447</v>
       </c>
       <c r="F527" t="s">
+        <v>826</v>
+      </c>
+      <c r="G527" t="s">
         <v>827</v>
-      </c>
-      <c r="G527" t="s">
-        <v>828</v>
       </c>
       <c r="H527">
         <v>38489</v>
@@ -46967,7 +46964,7 @@
         <v>201</v>
       </c>
       <c r="M527" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="N527" t="s">
         <v>678</v>
@@ -46979,7 +46976,7 @@
         <v>72</v>
       </c>
       <c r="Q527" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="R527" t="s">
         <v>57</v>
@@ -47002,7 +46999,7 @@
         <v>547</v>
       </c>
       <c r="B528" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C528">
         <v>71</v>
@@ -47014,10 +47011,10 @@
         <v>447</v>
       </c>
       <c r="F528" t="s">
+        <v>826</v>
+      </c>
+      <c r="G528" t="s">
         <v>827</v>
-      </c>
-      <c r="G528" t="s">
-        <v>828</v>
       </c>
       <c r="H528">
         <v>38489</v>
@@ -47044,7 +47041,7 @@
         <v>72</v>
       </c>
       <c r="Q528" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="R528" t="s">
         <v>57</v>
@@ -47067,7 +47064,7 @@
         <v>548</v>
       </c>
       <c r="B529" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C529">
         <v>72</v>
@@ -47079,34 +47076,34 @@
         <v>307</v>
       </c>
       <c r="F529" t="s">
+        <v>836</v>
+      </c>
+      <c r="G529" t="s">
         <v>837</v>
-      </c>
-      <c r="G529" t="s">
-        <v>838</v>
       </c>
       <c r="H529">
         <v>38484</v>
       </c>
       <c r="J529" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K529">
         <v>2</v>
       </c>
       <c r="L529" t="s">
+        <v>839</v>
+      </c>
+      <c r="M529" t="s">
         <v>840</v>
       </c>
-      <c r="M529" t="s">
+      <c r="N529" t="s">
         <v>841</v>
       </c>
-      <c r="N529" t="s">
+      <c r="O529" t="s">
         <v>842</v>
       </c>
-      <c r="O529" t="s">
-        <v>843</v>
-      </c>
       <c r="P529" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Q529">
         <v>20</v>
@@ -47150,7 +47147,7 @@
         <v>549</v>
       </c>
       <c r="B530" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C530">
         <v>72</v>
@@ -47162,34 +47159,34 @@
         <v>307</v>
       </c>
       <c r="F530" t="s">
+        <v>836</v>
+      </c>
+      <c r="G530" t="s">
         <v>837</v>
-      </c>
-      <c r="G530" t="s">
-        <v>838</v>
       </c>
       <c r="H530">
         <v>38484</v>
       </c>
       <c r="J530" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K530">
         <v>2</v>
       </c>
       <c r="L530" t="s">
+        <v>839</v>
+      </c>
+      <c r="M530" t="s">
         <v>840</v>
       </c>
-      <c r="M530" t="s">
+      <c r="N530" t="s">
         <v>841</v>
       </c>
-      <c r="N530" t="s">
+      <c r="O530" t="s">
         <v>842</v>
       </c>
-      <c r="O530" t="s">
-        <v>843</v>
-      </c>
       <c r="P530" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Q530">
         <v>20</v>
@@ -47233,7 +47230,7 @@
         <v>550</v>
       </c>
       <c r="B531" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C531">
         <v>72</v>
@@ -47245,10 +47242,10 @@
         <v>307</v>
       </c>
       <c r="F531" t="s">
+        <v>836</v>
+      </c>
+      <c r="G531" t="s">
         <v>837</v>
-      </c>
-      <c r="G531" t="s">
-        <v>838</v>
       </c>
       <c r="H531">
         <v>38484</v>
@@ -47260,13 +47257,13 @@
         <v>1</v>
       </c>
       <c r="L531" t="s">
+        <v>843</v>
+      </c>
+      <c r="M531" t="s">
         <v>844</v>
       </c>
-      <c r="M531" t="s">
+      <c r="N531" t="s">
         <v>845</v>
-      </c>
-      <c r="N531" t="s">
-        <v>846</v>
       </c>
       <c r="O531" t="s">
         <v>76</v>
@@ -47275,7 +47272,7 @@
         <v>72</v>
       </c>
       <c r="Q531" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="R531" t="s">
         <v>57</v>
@@ -47316,7 +47313,7 @@
         <v>551</v>
       </c>
       <c r="B532" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C532">
         <v>72</v>
@@ -47328,10 +47325,10 @@
         <v>307</v>
       </c>
       <c r="F532" t="s">
+        <v>836</v>
+      </c>
+      <c r="G532" t="s">
         <v>837</v>
-      </c>
-      <c r="G532" t="s">
-        <v>838</v>
       </c>
       <c r="H532">
         <v>38484</v>
@@ -47399,7 +47396,7 @@
         <v>552</v>
       </c>
       <c r="B533" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C533">
         <v>72</v>
@@ -47411,10 +47408,10 @@
         <v>307</v>
       </c>
       <c r="F533" t="s">
+        <v>836</v>
+      </c>
+      <c r="G533" t="s">
         <v>837</v>
-      </c>
-      <c r="G533" t="s">
-        <v>838</v>
       </c>
       <c r="H533">
         <v>38484</v>
@@ -47429,7 +47426,7 @@
         <v>82</v>
       </c>
       <c r="M533" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N533" t="s">
         <v>61</v>
@@ -47482,7 +47479,7 @@
         <v>553</v>
       </c>
       <c r="B534" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C534">
         <v>72</v>
@@ -47494,10 +47491,10 @@
         <v>307</v>
       </c>
       <c r="F534" t="s">
+        <v>836</v>
+      </c>
+      <c r="G534" t="s">
         <v>837</v>
-      </c>
-      <c r="G534" t="s">
-        <v>838</v>
       </c>
       <c r="H534">
         <v>38484</v>
@@ -47565,7 +47562,7 @@
         <v>554</v>
       </c>
       <c r="B535" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C535">
         <v>72</v>
@@ -47577,10 +47574,10 @@
         <v>307</v>
       </c>
       <c r="F535" t="s">
+        <v>836</v>
+      </c>
+      <c r="G535" t="s">
         <v>837</v>
-      </c>
-      <c r="G535" t="s">
-        <v>838</v>
       </c>
       <c r="H535">
         <v>38484</v>
@@ -47648,7 +47645,7 @@
         <v>555</v>
       </c>
       <c r="B536" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C536">
         <v>72</v>
@@ -47660,10 +47657,10 @@
         <v>307</v>
       </c>
       <c r="F536" t="s">
+        <v>836</v>
+      </c>
+      <c r="G536" t="s">
         <v>837</v>
-      </c>
-      <c r="G536" t="s">
-        <v>838</v>
       </c>
       <c r="H536">
         <v>38484</v>
@@ -47731,7 +47728,7 @@
         <v>556</v>
       </c>
       <c r="B537" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C537">
         <v>72</v>
@@ -47743,10 +47740,10 @@
         <v>307</v>
       </c>
       <c r="F537" t="s">
+        <v>836</v>
+      </c>
+      <c r="G537" t="s">
         <v>837</v>
-      </c>
-      <c r="G537" t="s">
-        <v>838</v>
       </c>
       <c r="H537">
         <v>38484</v>
@@ -47814,7 +47811,7 @@
         <v>557</v>
       </c>
       <c r="B538" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C538">
         <v>72</v>
@@ -47826,10 +47823,10 @@
         <v>307</v>
       </c>
       <c r="F538" t="s">
+        <v>836</v>
+      </c>
+      <c r="G538" t="s">
         <v>837</v>
-      </c>
-      <c r="G538" t="s">
-        <v>838</v>
       </c>
       <c r="H538">
         <v>38484</v>
@@ -47897,7 +47894,7 @@
         <v>558</v>
       </c>
       <c r="B539" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C539">
         <v>72</v>
@@ -47909,10 +47906,10 @@
         <v>307</v>
       </c>
       <c r="F539" t="s">
+        <v>836</v>
+      </c>
+      <c r="G539" t="s">
         <v>837</v>
-      </c>
-      <c r="G539" t="s">
-        <v>838</v>
       </c>
       <c r="H539">
         <v>38484</v>
@@ -47980,7 +47977,7 @@
         <v>559</v>
       </c>
       <c r="B540" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C540">
         <v>72</v>
@@ -47992,10 +47989,10 @@
         <v>307</v>
       </c>
       <c r="F540" t="s">
+        <v>836</v>
+      </c>
+      <c r="G540" t="s">
         <v>837</v>
-      </c>
-      <c r="G540" t="s">
-        <v>838</v>
       </c>
       <c r="H540">
         <v>38484</v>
@@ -48039,7 +48036,7 @@
         <v>560</v>
       </c>
       <c r="B541" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C541">
         <v>72</v>
@@ -48051,10 +48048,10 @@
         <v>307</v>
       </c>
       <c r="F541" t="s">
+        <v>836</v>
+      </c>
+      <c r="G541" t="s">
         <v>837</v>
-      </c>
-      <c r="G541" t="s">
-        <v>838</v>
       </c>
       <c r="H541">
         <v>38484</v>
@@ -48069,7 +48066,7 @@
         <v>82</v>
       </c>
       <c r="M541" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N541" t="s">
         <v>61</v>
@@ -48098,7 +48095,7 @@
         <v>561</v>
       </c>
       <c r="B542" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C542">
         <v>72</v>
@@ -48110,10 +48107,10 @@
         <v>307</v>
       </c>
       <c r="F542" t="s">
+        <v>836</v>
+      </c>
+      <c r="G542" t="s">
         <v>837</v>
-      </c>
-      <c r="G542" t="s">
-        <v>838</v>
       </c>
       <c r="H542">
         <v>38484</v>
@@ -48157,7 +48154,7 @@
         <v>562</v>
       </c>
       <c r="B543" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C543">
         <v>72</v>
@@ -48169,10 +48166,10 @@
         <v>307</v>
       </c>
       <c r="F543" t="s">
+        <v>836</v>
+      </c>
+      <c r="G543" t="s">
         <v>837</v>
-      </c>
-      <c r="G543" t="s">
-        <v>838</v>
       </c>
       <c r="H543">
         <v>38484</v>
@@ -48190,7 +48187,7 @@
         <v>166</v>
       </c>
       <c r="N543" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O543" t="s">
         <v>76</v>
@@ -48216,7 +48213,7 @@
         <v>563</v>
       </c>
       <c r="B544" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C544">
         <v>73</v>
@@ -48228,10 +48225,10 @@
         <v>307</v>
       </c>
       <c r="F544" t="s">
+        <v>836</v>
+      </c>
+      <c r="G544" t="s">
         <v>837</v>
-      </c>
-      <c r="G544" t="s">
-        <v>838</v>
       </c>
       <c r="H544">
         <v>38489</v>
@@ -48246,7 +48243,7 @@
         <v>82</v>
       </c>
       <c r="M544" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N544" t="s">
         <v>61</v>
@@ -48299,7 +48296,7 @@
         <v>564</v>
       </c>
       <c r="B545" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C545">
         <v>73</v>
@@ -48311,10 +48308,10 @@
         <v>307</v>
       </c>
       <c r="F545" t="s">
+        <v>836</v>
+      </c>
+      <c r="G545" t="s">
         <v>837</v>
-      </c>
-      <c r="G545" t="s">
-        <v>838</v>
       </c>
       <c r="H545">
         <v>38489</v>
@@ -48382,7 +48379,7 @@
         <v>565</v>
       </c>
       <c r="B546" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C546">
         <v>73</v>
@@ -48394,10 +48391,10 @@
         <v>307</v>
       </c>
       <c r="F546" t="s">
+        <v>836</v>
+      </c>
+      <c r="G546" t="s">
         <v>837</v>
-      </c>
-      <c r="G546" t="s">
-        <v>838</v>
       </c>
       <c r="H546">
         <v>38489</v>
@@ -48465,7 +48462,7 @@
         <v>566</v>
       </c>
       <c r="B547" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C547">
         <v>73</v>
@@ -48477,10 +48474,10 @@
         <v>307</v>
       </c>
       <c r="F547" t="s">
+        <v>836</v>
+      </c>
+      <c r="G547" t="s">
         <v>837</v>
-      </c>
-      <c r="G547" t="s">
-        <v>838</v>
       </c>
       <c r="H547">
         <v>38489</v>
@@ -48495,7 +48492,7 @@
         <v>82</v>
       </c>
       <c r="M547" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N547" t="s">
         <v>61</v>
@@ -48548,7 +48545,7 @@
         <v>567</v>
       </c>
       <c r="B548" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C548">
         <v>73</v>
@@ -48560,10 +48557,10 @@
         <v>307</v>
       </c>
       <c r="F548" t="s">
+        <v>836</v>
+      </c>
+      <c r="G548" t="s">
         <v>837</v>
-      </c>
-      <c r="G548" t="s">
-        <v>838</v>
       </c>
       <c r="H548">
         <v>38489</v>
@@ -48631,7 +48628,7 @@
         <v>568</v>
       </c>
       <c r="B549" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C549">
         <v>73</v>
@@ -48643,10 +48640,10 @@
         <v>307</v>
       </c>
       <c r="F549" t="s">
+        <v>836</v>
+      </c>
+      <c r="G549" t="s">
         <v>837</v>
-      </c>
-      <c r="G549" t="s">
-        <v>838</v>
       </c>
       <c r="H549">
         <v>38489</v>
@@ -48714,7 +48711,7 @@
         <v>569</v>
       </c>
       <c r="B550" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C550">
         <v>73</v>
@@ -48726,10 +48723,10 @@
         <v>307</v>
       </c>
       <c r="F550" t="s">
+        <v>836</v>
+      </c>
+      <c r="G550" t="s">
         <v>837</v>
-      </c>
-      <c r="G550" t="s">
-        <v>838</v>
       </c>
       <c r="H550">
         <v>38489</v>
@@ -48747,7 +48744,7 @@
         <v>166</v>
       </c>
       <c r="N550" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O550" t="s">
         <v>76</v>
@@ -48797,7 +48794,7 @@
         <v>570</v>
       </c>
       <c r="B551" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C551">
         <v>73</v>
@@ -48809,10 +48806,10 @@
         <v>307</v>
       </c>
       <c r="F551" t="s">
+        <v>836</v>
+      </c>
+      <c r="G551" t="s">
         <v>837</v>
-      </c>
-      <c r="G551" t="s">
-        <v>838</v>
       </c>
       <c r="H551">
         <v>38489</v>
@@ -48880,7 +48877,7 @@
         <v>571</v>
       </c>
       <c r="B552" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C552">
         <v>73</v>
@@ -48892,10 +48889,10 @@
         <v>307</v>
       </c>
       <c r="F552" t="s">
+        <v>836</v>
+      </c>
+      <c r="G552" t="s">
         <v>837</v>
-      </c>
-      <c r="G552" t="s">
-        <v>838</v>
       </c>
       <c r="H552">
         <v>38489</v>
@@ -48910,7 +48907,7 @@
         <v>82</v>
       </c>
       <c r="M552" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N552" t="s">
         <v>61</v>
@@ -48963,7 +48960,7 @@
         <v>572</v>
       </c>
       <c r="B553" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C553">
         <v>73</v>
@@ -48975,10 +48972,10 @@
         <v>307</v>
       </c>
       <c r="F553" t="s">
+        <v>836</v>
+      </c>
+      <c r="G553" t="s">
         <v>837</v>
-      </c>
-      <c r="G553" t="s">
-        <v>838</v>
       </c>
       <c r="H553">
         <v>38489</v>
@@ -49046,7 +49043,7 @@
         <v>573</v>
       </c>
       <c r="B554" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C554">
         <v>73</v>
@@ -49058,10 +49055,10 @@
         <v>307</v>
       </c>
       <c r="F554" t="s">
+        <v>836</v>
+      </c>
+      <c r="G554" t="s">
         <v>837</v>
-      </c>
-      <c r="G554" t="s">
-        <v>838</v>
       </c>
       <c r="H554">
         <v>38489</v>
@@ -49129,7 +49126,7 @@
         <v>574</v>
       </c>
       <c r="B555" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C555">
         <v>73</v>
@@ -49141,10 +49138,10 @@
         <v>307</v>
       </c>
       <c r="F555" t="s">
+        <v>836</v>
+      </c>
+      <c r="G555" t="s">
         <v>837</v>
-      </c>
-      <c r="G555" t="s">
-        <v>838</v>
       </c>
       <c r="H555">
         <v>38489</v>
@@ -49188,7 +49185,7 @@
         <v>575</v>
       </c>
       <c r="B556" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C556">
         <v>73</v>
@@ -49200,10 +49197,10 @@
         <v>307</v>
       </c>
       <c r="F556" t="s">
+        <v>836</v>
+      </c>
+      <c r="G556" t="s">
         <v>837</v>
-      </c>
-      <c r="G556" t="s">
-        <v>838</v>
       </c>
       <c r="H556">
         <v>38489</v>
@@ -49218,7 +49215,7 @@
         <v>82</v>
       </c>
       <c r="M556" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N556" t="s">
         <v>61</v>
@@ -49247,7 +49244,7 @@
         <v>576</v>
       </c>
       <c r="B557" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C557">
         <v>73</v>
@@ -49259,10 +49256,10 @@
         <v>307</v>
       </c>
       <c r="F557" t="s">
+        <v>836</v>
+      </c>
+      <c r="G557" t="s">
         <v>837</v>
-      </c>
-      <c r="G557" t="s">
-        <v>838</v>
       </c>
       <c r="H557">
         <v>38489</v>
@@ -49306,7 +49303,7 @@
         <v>577</v>
       </c>
       <c r="B558" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C558">
         <v>73</v>
@@ -49318,10 +49315,10 @@
         <v>307</v>
       </c>
       <c r="F558" t="s">
+        <v>836</v>
+      </c>
+      <c r="G558" t="s">
         <v>837</v>
-      </c>
-      <c r="G558" t="s">
-        <v>838</v>
       </c>
       <c r="H558">
         <v>38489</v>
@@ -49336,7 +49333,7 @@
         <v>82</v>
       </c>
       <c r="M558" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N558" t="s">
         <v>61</v>
@@ -49365,7 +49362,7 @@
         <v>578</v>
       </c>
       <c r="B559" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C559">
         <v>74</v>
@@ -49386,7 +49383,7 @@
         <v>38869</v>
       </c>
       <c r="J559" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K559">
         <v>2</v>
@@ -49448,7 +49445,7 @@
         <v>579</v>
       </c>
       <c r="B560" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C560">
         <v>74</v>
@@ -49499,7 +49496,7 @@
         <v>5</v>
       </c>
       <c r="T560" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Y560">
         <v>6</v>
@@ -49531,7 +49528,7 @@
         <v>580</v>
       </c>
       <c r="B561" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C561">
         <v>74</v>
@@ -49552,7 +49549,7 @@
         <v>38871</v>
       </c>
       <c r="J561" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K561">
         <v>2</v>
@@ -49582,7 +49579,7 @@
         <v>6</v>
       </c>
       <c r="T561" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Y561">
         <v>6</v>
@@ -49614,7 +49611,7 @@
         <v>581</v>
       </c>
       <c r="B562" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C562">
         <v>74</v>
@@ -49635,19 +49632,19 @@
         <v>38872</v>
       </c>
       <c r="J562" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K562">
         <v>2</v>
       </c>
       <c r="L562" t="s">
+        <v>855</v>
+      </c>
+      <c r="M562" t="s">
         <v>856</v>
       </c>
-      <c r="M562" t="s">
+      <c r="N562" t="s">
         <v>857</v>
-      </c>
-      <c r="N562" t="s">
-        <v>858</v>
       </c>
       <c r="O562" t="s">
         <v>76</v>
@@ -49665,7 +49662,7 @@
         <v>7</v>
       </c>
       <c r="T562" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Y562">
         <v>0</v>
@@ -49697,7 +49694,7 @@
         <v>582</v>
       </c>
       <c r="B563" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C563">
         <v>74</v>
@@ -49718,7 +49715,7 @@
         <v>38873</v>
       </c>
       <c r="J563" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K563">
         <v>2</v>
@@ -49727,7 +49724,7 @@
         <v>798</v>
       </c>
       <c r="M563" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="N563" t="s">
         <v>800</v>
@@ -49748,7 +49745,7 @@
         <v>8</v>
       </c>
       <c r="T563" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Y563">
         <v>2</v>
@@ -49780,7 +49777,7 @@
         <v>583</v>
       </c>
       <c r="B564" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C564">
         <v>74</v>
@@ -49801,19 +49798,19 @@
         <v>38874</v>
       </c>
       <c r="J564" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K564">
         <v>2</v>
       </c>
       <c r="L564" t="s">
+        <v>863</v>
+      </c>
+      <c r="M564" t="s">
         <v>864</v>
       </c>
-      <c r="M564" t="s">
+      <c r="N564" t="s">
         <v>865</v>
-      </c>
-      <c r="N564" t="s">
-        <v>866</v>
       </c>
       <c r="O564" t="s">
         <v>76</v>
@@ -49831,7 +49828,7 @@
         <v>9</v>
       </c>
       <c r="T564" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Y564">
         <v>2</v>
@@ -49863,7 +49860,7 @@
         <v>584</v>
       </c>
       <c r="B565" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C565">
         <v>74</v>
@@ -49884,7 +49881,7 @@
         <v>38875</v>
       </c>
       <c r="J565" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K565">
         <v>2</v>
@@ -49896,7 +49893,7 @@
         <v>517</v>
       </c>
       <c r="N565" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O565" t="s">
         <v>76</v>
@@ -49914,7 +49911,7 @@
         <v>10</v>
       </c>
       <c r="T565" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Y565">
         <v>1</v>
@@ -49946,7 +49943,7 @@
         <v>585</v>
       </c>
       <c r="B566" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C566">
         <v>74</v>
@@ -49967,7 +49964,7 @@
         <v>38876</v>
       </c>
       <c r="J566" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K566">
         <v>2</v>
@@ -49976,10 +49973,10 @@
         <v>807</v>
       </c>
       <c r="M566" t="s">
+        <v>871</v>
+      </c>
+      <c r="N566" t="s">
         <v>872</v>
-      </c>
-      <c r="N566" t="s">
-        <v>873</v>
       </c>
       <c r="O566" t="s">
         <v>76</v>
@@ -49997,7 +49994,7 @@
         <v>11</v>
       </c>
       <c r="T566" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="Y566">
         <v>1</v>
@@ -50029,7 +50026,7 @@
         <v>586</v>
       </c>
       <c r="B567" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C567">
         <v>74</v>
@@ -50050,19 +50047,19 @@
         <v>38877</v>
       </c>
       <c r="J567" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K567">
         <v>2</v>
       </c>
       <c r="L567" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="M567" t="s">
+        <v>875</v>
+      </c>
+      <c r="N567" t="s">
         <v>876</v>
-      </c>
-      <c r="N567" t="s">
-        <v>877</v>
       </c>
       <c r="O567" t="s">
         <v>76</v>
@@ -50071,7 +50068,7 @@
         <v>72</v>
       </c>
       <c r="Q567" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="R567" t="s">
         <v>57</v>
@@ -50080,7 +50077,7 @@
         <v>12</v>
       </c>
       <c r="T567" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Y567">
         <v>6</v>
@@ -50112,7 +50109,7 @@
         <v>587</v>
       </c>
       <c r="B568" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C568">
         <v>74</v>
@@ -50133,19 +50130,19 @@
         <v>38878</v>
       </c>
       <c r="J568" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K568">
         <v>2</v>
       </c>
       <c r="L568" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M568" t="s">
+        <v>879</v>
+      </c>
+      <c r="N568" t="s">
         <v>880</v>
-      </c>
-      <c r="N568" t="s">
-        <v>881</v>
       </c>
       <c r="O568" t="s">
         <v>76</v>
@@ -50154,7 +50151,7 @@
         <v>72</v>
       </c>
       <c r="Q568" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R568" t="s">
         <v>57</v>
@@ -50195,7 +50192,7 @@
         <v>588</v>
       </c>
       <c r="B569" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C569">
         <v>74</v>
@@ -50216,19 +50213,19 @@
         <v>38879</v>
       </c>
       <c r="J569" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="K569">
         <v>2</v>
       </c>
       <c r="L569" t="s">
+        <v>882</v>
+      </c>
+      <c r="M569" t="s">
         <v>883</v>
       </c>
-      <c r="M569" t="s">
+      <c r="N569" t="s">
         <v>884</v>
-      </c>
-      <c r="N569" t="s">
-        <v>885</v>
       </c>
       <c r="O569" t="s">
         <v>76</v>
@@ -50237,7 +50234,7 @@
         <v>72</v>
       </c>
       <c r="Q569" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R569" t="s">
         <v>57</v>
@@ -50246,7 +50243,7 @@
         <v>14</v>
       </c>
       <c r="T569" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Y569">
         <v>2</v>
@@ -50278,7 +50275,7 @@
         <v>589</v>
       </c>
       <c r="B570" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C570">
         <v>74</v>
@@ -50299,19 +50296,19 @@
         <v>38880</v>
       </c>
       <c r="J570" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K570">
         <v>2</v>
       </c>
       <c r="L570" t="s">
+        <v>887</v>
+      </c>
+      <c r="M570" t="s">
         <v>888</v>
       </c>
-      <c r="M570" t="s">
+      <c r="N570" t="s">
         <v>889</v>
-      </c>
-      <c r="N570" t="s">
-        <v>890</v>
       </c>
       <c r="O570" t="s">
         <v>76</v>
@@ -50329,7 +50326,7 @@
         <v>15</v>
       </c>
       <c r="T570" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Y570">
         <v>2</v>
@@ -50381,381 +50378,381 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="B10" t="s">
         <v>901</v>
-      </c>
-      <c r="B10" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="8" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="9" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B56" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B57" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="10" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="10" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="66" spans="1:1" s="10" customFormat="1">
       <c r="A66" s="10" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="67" spans="1:1" s="10" customFormat="1">
       <c r="A67" s="10" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="68" spans="1:1" s="10" customFormat="1">
       <c r="A68" s="10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="69" spans="1:1" s="10" customFormat="1">
       <c r="A69" s="10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="70" spans="1:1" s="10" customFormat="1">
       <c r="A70" s="10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="71" spans="1:1" s="10" customFormat="1">
       <c r="A71" s="10" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="72" spans="1:1" s="10" customFormat="1">
       <c r="A72" s="10" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="74" spans="1:1" s="10" customFormat="1">
       <c r="A74" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
